--- a/static/Models/Classification/Equation/Financial Services.xlsx
+++ b/static/Models/Classification/Equation/Financial Services.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>9.235957145690918</v>
+        <v>9.600517272949219</v>
       </c>
       <c r="C2">
-        <v>0.5043238401412964</v>
+        <v>0.3925055265426636</v>
       </c>
       <c r="D2">
-        <v>-6.515379428863525</v>
+        <v>-6.354586601257324</v>
       </c>
       <c r="E2">
-        <v>5.921724319458008</v>
+        <v>6.380733489990234</v>
       </c>
       <c r="F2">
-        <v>-0.520036518573761</v>
+        <v>-1.178873300552368</v>
       </c>
       <c r="G2">
-        <v>-3.590006589889526</v>
+        <v>-4.132195949554443</v>
       </c>
       <c r="H2">
-        <v>-0.9344797134399414</v>
+        <v>-0.1975056678056717</v>
       </c>
       <c r="I2">
-        <v>1.822869896888733</v>
+        <v>1.506818771362305</v>
       </c>
       <c r="J2">
-        <v>-6.903584480285645</v>
+        <v>-7.714577198028564</v>
       </c>
       <c r="K2">
-        <v>0.07877929508686066</v>
+        <v>-0.9217364192008972</v>
       </c>
       <c r="L2">
-        <v>0.332224041223526</v>
+        <v>0.2014150321483612</v>
       </c>
       <c r="M2">
-        <v>-0.4217115938663483</v>
+        <v>-0.6300838589668274</v>
       </c>
       <c r="N2">
-        <v>-0.1776985377073288</v>
+        <v>-0.2760558724403381</v>
       </c>
       <c r="O2">
-        <v>-0.7415844202041626</v>
+        <v>-0.3736885190010071</v>
       </c>
       <c r="P2">
-        <v>12.39817523956299</v>
+        <v>11.53315353393555</v>
       </c>
       <c r="Q2">
-        <v>-9.802133560180664</v>
+        <v>-9.42646598815918</v>
       </c>
       <c r="R2">
-        <v>0.9257963895797729</v>
+        <v>1.867030024528503</v>
       </c>
       <c r="S2">
-        <v>19.44291877746582</v>
+        <v>18.98671913146973</v>
       </c>
       <c r="T2">
-        <v>2.551321506500244</v>
+        <v>2.098042011260986</v>
       </c>
       <c r="U2">
-        <v>0.9815772175788879</v>
+        <v>0.3361527025699615</v>
       </c>
       <c r="V2">
-        <v>-1.493609547615051</v>
+        <v>-0.6176974773406982</v>
       </c>
       <c r="W2">
-        <v>4.074950218200684</v>
+        <v>4.017015933990479</v>
       </c>
       <c r="X2">
-        <v>0.4792148470878601</v>
+        <v>0.6032925248146057</v>
       </c>
       <c r="Y2">
-        <v>-1.551472187042236</v>
+        <v>-1.465049028396606</v>
       </c>
       <c r="Z2">
-        <v>-1.651137590408325</v>
+        <v>-1.327386856079102</v>
       </c>
       <c r="AA2">
-        <v>-0.4147765934467316</v>
+        <v>-0.06494132429361343</v>
       </c>
       <c r="AB2">
-        <v>-4.257380962371826</v>
+        <v>-3.313639402389526</v>
       </c>
       <c r="AC2">
-        <v>10.7822904586792</v>
+        <v>10.48880863189697</v>
       </c>
       <c r="AD2">
-        <v>-1.174605250358582</v>
+        <v>-1.267439365386963</v>
       </c>
       <c r="AE2">
-        <v>-0.06041604280471802</v>
+        <v>0.6289584636688232</v>
       </c>
       <c r="AF2">
-        <v>1.312737822532654</v>
+        <v>1.277811527252197</v>
       </c>
       <c r="AG2">
-        <v>-14.55069923400879</v>
+        <v>-15.36494255065918</v>
       </c>
       <c r="AH2">
-        <v>-5.81035327911377</v>
+        <v>-5.213855743408203</v>
       </c>
       <c r="AI2">
-        <v>-6.481823444366455</v>
+        <v>-5.994400024414062</v>
       </c>
       <c r="AJ2">
-        <v>-0.5825309157371521</v>
+        <v>-0.02961294166743755</v>
       </c>
       <c r="AK2">
-        <v>0.8932375311851501</v>
+        <v>1.411103248596191</v>
       </c>
       <c r="AL2">
-        <v>-0.8790164589881897</v>
+        <v>0.1191114783287048</v>
       </c>
       <c r="AM2">
-        <v>4.630613803863525</v>
+        <v>5.874942779541016</v>
       </c>
       <c r="AN2">
-        <v>-8.421768188476562</v>
+        <v>-8.028444290161133</v>
       </c>
       <c r="AO2">
-        <v>2.047428607940674</v>
+        <v>2.486109733581543</v>
       </c>
       <c r="AP2">
-        <v>0.466659814119339</v>
+        <v>-0.03961298242211342</v>
       </c>
       <c r="AQ2">
-        <v>-0.2820455729961395</v>
+        <v>0.1369525492191315</v>
       </c>
       <c r="AR2">
-        <v>21.54603004455566</v>
+        <v>21.13579368591309</v>
       </c>
       <c r="AS2">
-        <v>-6.436740875244141</v>
+        <v>-6.139750003814697</v>
       </c>
       <c r="AT2">
-        <v>-10.31867218017578</v>
+        <v>-10.48279571533203</v>
       </c>
       <c r="AU2">
-        <v>-3.20789098739624</v>
+        <v>-2.243134021759033</v>
       </c>
       <c r="AV2">
-        <v>0.09914644807577133</v>
+        <v>-0.0227529089897871</v>
       </c>
       <c r="AW2">
-        <v>-8.869647026062012</v>
+        <v>-8.353536605834961</v>
       </c>
       <c r="AX2">
-        <v>2.581139326095581</v>
+        <v>2.002672433853149</v>
       </c>
       <c r="AY2">
-        <v>-6.791016578674316</v>
+        <v>-7.253018856048584</v>
       </c>
       <c r="AZ2">
-        <v>-2.708816528320312</v>
+        <v>-2.553724765777588</v>
       </c>
       <c r="BA2">
-        <v>-9.283588409423828</v>
+        <v>-9.097081184387207</v>
       </c>
       <c r="BB2">
-        <v>-14.60409545898438</v>
+        <v>-14.51539516448975</v>
       </c>
       <c r="BC2">
-        <v>1.10834014415741</v>
+        <v>0.7507849335670471</v>
       </c>
       <c r="BD2">
-        <v>-1.679634690284729</v>
+        <v>-1.926765084266663</v>
       </c>
       <c r="BE2">
-        <v>0.4931654334068298</v>
+        <v>-0.02023823373019695</v>
       </c>
       <c r="BF2">
-        <v>-2.015517711639404</v>
+        <v>-2.142755508422852</v>
       </c>
       <c r="BG2">
-        <v>0.8638542294502258</v>
+        <v>0.7002943754196167</v>
       </c>
       <c r="BH2">
-        <v>-1.012611508369446</v>
+        <v>-0.5068991184234619</v>
       </c>
       <c r="BI2">
-        <v>4.688399791717529</v>
+        <v>4.442001342773438</v>
       </c>
       <c r="BJ2">
-        <v>1.910695195198059</v>
+        <v>1.778434991836548</v>
       </c>
       <c r="BK2">
-        <v>1.363212466239929</v>
+        <v>0.8199567794799805</v>
       </c>
       <c r="BL2">
-        <v>0.1438961327075958</v>
+        <v>0.3546974062919617</v>
       </c>
       <c r="BM2">
-        <v>2.060483455657959</v>
+        <v>1.680811762809753</v>
       </c>
       <c r="BN2">
-        <v>-4.389953136444092</v>
+        <v>-4.947062969207764</v>
       </c>
       <c r="BO2">
-        <v>-9.341444969177246</v>
+        <v>-9.20458984375</v>
       </c>
       <c r="BP2">
-        <v>21.48393630981445</v>
+        <v>22.17178535461426</v>
       </c>
       <c r="BQ2">
-        <v>7.831659317016602</v>
+        <v>7.715271949768066</v>
       </c>
       <c r="BR2">
-        <v>1.04356050491333</v>
+        <v>1.139033555984497</v>
       </c>
       <c r="BS2">
-        <v>1.378302097320557</v>
+        <v>1.27754819393158</v>
       </c>
       <c r="BT2">
-        <v>0.4492681622505188</v>
+        <v>0.8234707117080688</v>
       </c>
       <c r="BU2">
-        <v>1.168731570243835</v>
+        <v>0.7307313084602356</v>
       </c>
       <c r="BV2">
-        <v>-6.06797981262207</v>
+        <v>-6.534707069396973</v>
       </c>
       <c r="BW2">
-        <v>1.005643963813782</v>
+        <v>1.443657517433167</v>
       </c>
       <c r="BX2">
-        <v>-9.416120529174805</v>
+        <v>-10.35635852813721</v>
       </c>
       <c r="BY2">
-        <v>0.3974567651748657</v>
+        <v>0.2604123055934906</v>
       </c>
       <c r="BZ2">
-        <v>-3.677004814147949</v>
+        <v>-4.337509155273438</v>
       </c>
       <c r="CA2">
-        <v>-2.358014822006226</v>
+        <v>-1.737594723701477</v>
       </c>
       <c r="CB2">
-        <v>1.428939461708069</v>
+        <v>2.209894180297852</v>
       </c>
       <c r="CC2">
-        <v>-0.2960566580295563</v>
+        <v>-0.5329343676567078</v>
       </c>
       <c r="CD2">
-        <v>1.449645519256592</v>
+        <v>1.402016162872314</v>
       </c>
       <c r="CE2">
-        <v>10.02880191802979</v>
+        <v>10.17675399780273</v>
       </c>
       <c r="CF2">
-        <v>4.049083232879639</v>
+        <v>4.242204189300537</v>
       </c>
       <c r="CG2">
-        <v>2.9414963722229</v>
+        <v>2.146226167678833</v>
       </c>
       <c r="CH2">
-        <v>-1.222753167152405</v>
+        <v>-1.890515565872192</v>
       </c>
       <c r="CI2">
-        <v>-1.221069574356079</v>
+        <v>-1.477734088897705</v>
       </c>
       <c r="CJ2">
-        <v>10.80006694793701</v>
+        <v>11.22715282440186</v>
       </c>
       <c r="CK2">
-        <v>-0.3755880892276764</v>
+        <v>-0.2131221741437912</v>
       </c>
       <c r="CL2">
-        <v>-1.35913348197937</v>
+        <v>-1.741425395011902</v>
       </c>
       <c r="CM2">
-        <v>-3.422125101089478</v>
+        <v>-3.256077289581299</v>
       </c>
       <c r="CN2">
-        <v>-1.789087891578674</v>
+        <v>-2.322391986846924</v>
       </c>
       <c r="CO2">
-        <v>0.4134188294410706</v>
+        <v>0.1605980545282364</v>
       </c>
       <c r="CP2">
-        <v>5.230875015258789</v>
+        <v>5.224317073822021</v>
       </c>
       <c r="CQ2">
-        <v>0.914450466632843</v>
+        <v>1.458519101142883</v>
       </c>
       <c r="CR2">
-        <v>-1.284198880195618</v>
+        <v>-1.991788148880005</v>
       </c>
       <c r="CS2">
-        <v>-2.116438627243042</v>
+        <v>-1.631225109100342</v>
       </c>
       <c r="CT2">
-        <v>2.196905136108398</v>
+        <v>1.942134618759155</v>
       </c>
       <c r="CU2">
-        <v>-0.2213823944330215</v>
+        <v>-0.5631457567214966</v>
       </c>
       <c r="CV2">
-        <v>-0.503365695476532</v>
+        <v>-0.2913074493408203</v>
       </c>
       <c r="CW2">
-        <v>-16.58004570007324</v>
+        <v>-17.29253578186035</v>
       </c>
       <c r="CX2">
-        <v>1.459396004676819</v>
+        <v>1.128013849258423</v>
       </c>
       <c r="CY2">
-        <v>-2.996286392211914</v>
+        <v>-2.383563756942749</v>
       </c>
       <c r="CZ2">
-        <v>-1.566870808601379</v>
+        <v>-1.247044324874878</v>
       </c>
       <c r="DA2">
-        <v>-1.659099936485291</v>
+        <v>-2.497212648391724</v>
       </c>
       <c r="DB2">
-        <v>-4.19216251373291</v>
+        <v>-4.978382587432861</v>
       </c>
       <c r="DC2">
-        <v>0.1963187754154205</v>
+        <v>0.1405256539583206</v>
       </c>
       <c r="DD2">
-        <v>-12.84597492218018</v>
+        <v>-13.82500839233398</v>
       </c>
       <c r="DE2">
-        <v>-2.908711910247803</v>
+        <v>-2.525295257568359</v>
       </c>
       <c r="DF2">
-        <v>3.949544668197632</v>
+        <v>4.200507164001465</v>
       </c>
       <c r="DG2">
-        <v>2.126141786575317</v>
+        <v>1.435638070106506</v>
       </c>
       <c r="DH2">
-        <v>0.7806928157806396</v>
+        <v>1.085307598114014</v>
       </c>
       <c r="DI2">
-        <v>0.8970649242401123</v>
+        <v>0.6038278937339783</v>
       </c>
       <c r="DJ2">
-        <v>-8.312332153320312</v>
+        <v>-8.157284736633301</v>
       </c>
       <c r="DK2">
-        <v>8.336953163146973</v>
+        <v>7.947379589080811</v>
       </c>
       <c r="DL2">
-        <v>6.874355792999268</v>
+        <v>7.195440769195557</v>
       </c>
       <c r="DM2">
-        <v>-0.6702234745025635</v>
+        <v>-0.5425733327865601</v>
       </c>
       <c r="DN2">
-        <v>0.368551641702652</v>
+        <v>0.2769723236560822</v>
       </c>
       <c r="DO2">
-        <v>3.537383079528809</v>
+        <v>3.427395820617676</v>
       </c>
       <c r="DP2">
-        <v>2.750011444091797</v>
+        <v>3.120213985443115</v>
       </c>
       <c r="DQ2">
-        <v>-0.9996888041496277</v>
+        <v>-0.7694522738456726</v>
       </c>
       <c r="DR2">
-        <v>-1.047306895256042</v>
+        <v>-1.305957913398743</v>
       </c>
       <c r="DS2">
-        <v>-7.990761756896973</v>
+        <v>-7.515993595123291</v>
       </c>
       <c r="DT2">
-        <v>-12.1665153503418</v>
+        <v>-13.01143169403076</v>
       </c>
       <c r="DU2">
-        <v>-3.9439377784729</v>
+        <v>-4.612106800079346</v>
       </c>
       <c r="DV2">
-        <v>0.7410000562667847</v>
+        <v>1.835068583488464</v>
       </c>
       <c r="DW2">
-        <v>-0.04216271266341209</v>
+        <v>-0.6309934854507446</v>
       </c>
       <c r="DX2">
-        <v>-0.3029864728450775</v>
+        <v>-0.3018065094947815</v>
       </c>
       <c r="DY2">
-        <v>-3.658422946929932</v>
+        <v>-3.05850625038147</v>
       </c>
       <c r="DZ2">
-        <v>-0.6645212769508362</v>
+        <v>-0.4280195832252502</v>
       </c>
       <c r="EA2">
-        <v>-4.686304569244385</v>
+        <v>-5.223984241485596</v>
       </c>
       <c r="EB2">
-        <v>-2.025664329528809</v>
+        <v>-2.155488967895508</v>
       </c>
       <c r="EC2">
-        <v>-1.058112263679504</v>
+        <v>-0.1208253130316734</v>
       </c>
       <c r="ED2">
-        <v>7.00259256362915</v>
+        <v>6.522656440734863</v>
       </c>
       <c r="EE2">
-        <v>-0.7699997425079346</v>
+        <v>-1.194710612297058</v>
       </c>
       <c r="EF2">
-        <v>-6.472997188568115</v>
+        <v>-6.983910083770752</v>
       </c>
       <c r="EG2">
-        <v>-3.510445117950439</v>
+        <v>-2.468966007232666</v>
       </c>
       <c r="EH2">
-        <v>-7.921071529388428</v>
+        <v>-8.993511199951172</v>
       </c>
       <c r="EI2">
-        <v>-1.412871599197388</v>
+        <v>-1.946427583694458</v>
       </c>
       <c r="EJ2">
-        <v>3.114892959594727</v>
+        <v>2.938347578048706</v>
       </c>
       <c r="EK2">
-        <v>0.599604606628418</v>
+        <v>0.2254713028669357</v>
       </c>
       <c r="EL2">
-        <v>0.8039052486419678</v>
+        <v>0.6318007707595825</v>
       </c>
       <c r="EM2">
-        <v>6.471051692962646</v>
+        <v>6.943648338317871</v>
       </c>
       <c r="EN2">
-        <v>-0.07865992188453674</v>
+        <v>-0.5351353883743286</v>
       </c>
       <c r="EO2">
-        <v>17.77820014953613</v>
+        <v>16.95811462402344</v>
       </c>
       <c r="EP2">
-        <v>-7.6855149269104</v>
+        <v>-7.976410388946533</v>
       </c>
       <c r="EQ2">
-        <v>-12.90671825408936</v>
+        <v>-12.54739761352539</v>
       </c>
       <c r="ER2">
-        <v>-1.503328323364258</v>
+        <v>-0.9325957894325256</v>
       </c>
       <c r="ES2">
-        <v>3.513882398605347</v>
+        <v>2.442919492721558</v>
       </c>
       <c r="ET2">
-        <v>11.56667804718018</v>
+        <v>10.6192741394043</v>
       </c>
       <c r="EU2">
-        <v>12.15748023986816</v>
+        <v>12.4694242477417</v>
       </c>
       <c r="EV2">
-        <v>-0.2638226747512817</v>
+        <v>-1.310825943946838</v>
       </c>
       <c r="EW2">
-        <v>5.541907787322998</v>
+        <v>5.940383911132812</v>
       </c>
       <c r="EX2">
-        <v>5.375761985778809</v>
+        <v>5.304052352905273</v>
       </c>
       <c r="EY2">
-        <v>0.6806972026824951</v>
+        <v>0.4256093800067902</v>
       </c>
       <c r="EZ2">
-        <v>4.340641498565674</v>
+        <v>5.203882217407227</v>
       </c>
       <c r="FA2">
-        <v>0.4197455942630768</v>
+        <v>0.4257792532444</v>
       </c>
       <c r="FB2">
-        <v>1.038094282150269</v>
+        <v>1.18056333065033</v>
       </c>
       <c r="FC2">
-        <v>-5.79784631729126</v>
+        <v>-6.154569625854492</v>
       </c>
       <c r="FD2">
-        <v>1.132150173187256</v>
+        <v>1.46272337436676</v>
       </c>
       <c r="FE2">
-        <v>-4.196065902709961</v>
+        <v>-3.549121856689453</v>
       </c>
       <c r="FF2">
-        <v>7.493869304656982</v>
+        <v>7.249986171722412</v>
       </c>
       <c r="FG2">
-        <v>-10.85199642181396</v>
+        <v>-11.47715854644775</v>
       </c>
       <c r="FH2">
-        <v>1.398251414299011</v>
+        <v>1.311877012252808</v>
       </c>
       <c r="FI2">
-        <v>-8.450272560119629</v>
+        <v>-8.359723091125488</v>
       </c>
       <c r="FJ2">
-        <v>3.845454216003418</v>
+        <v>4.762417793273926</v>
       </c>
       <c r="FK2">
-        <v>-6.806798934936523</v>
+        <v>-7.241531848907471</v>
       </c>
       <c r="FL2">
-        <v>3.043190240859985</v>
+        <v>3.660255670547485</v>
       </c>
       <c r="FM2">
-        <v>5.759858131408691</v>
+        <v>6.01201057434082</v>
       </c>
       <c r="FN2">
-        <v>3.08231520652771</v>
+        <v>3.341046810150146</v>
       </c>
       <c r="FO2">
-        <v>-0.4069027006626129</v>
+        <v>-0.9820740222930908</v>
       </c>
       <c r="FP2">
-        <v>0.1039848104119301</v>
+        <v>0.1893047988414764</v>
       </c>
       <c r="FQ2">
-        <v>-0.4246849417686462</v>
+        <v>-0.6170240044593811</v>
       </c>
       <c r="FR2">
-        <v>2.715965032577515</v>
+        <v>2.896458148956299</v>
       </c>
       <c r="FS2">
-        <v>-0.341948390007019</v>
+        <v>-0.7548577189445496</v>
       </c>
       <c r="FT2">
-        <v>-2.682713747024536</v>
+        <v>-2.969261884689331</v>
       </c>
       <c r="FU2">
-        <v>1.610269784927368</v>
+        <v>1.223282933235168</v>
       </c>
       <c r="FV2">
-        <v>1.703531503677368</v>
+        <v>1.38634192943573</v>
       </c>
       <c r="FW2">
-        <v>0.3707040250301361</v>
+        <v>-0.2774254381656647</v>
       </c>
       <c r="FX2">
-        <v>-1.148792505264282</v>
+        <v>-1.782079100608826</v>
       </c>
       <c r="FY2">
-        <v>0.3859058916568756</v>
+        <v>1.286263823509216</v>
       </c>
       <c r="FZ2">
-        <v>0.7683919072151184</v>
+        <v>0.7970998287200928</v>
       </c>
       <c r="GA2">
-        <v>-1.123943448066711</v>
+        <v>-1.819244265556335</v>
       </c>
       <c r="GB2">
-        <v>-0.7054259181022644</v>
+        <v>0.02900595217943192</v>
       </c>
       <c r="GC2">
-        <v>2.249682903289795</v>
+        <v>2.188534259796143</v>
       </c>
       <c r="GD2">
-        <v>-4.094577789306641</v>
+        <v>-4.257250785827637</v>
       </c>
       <c r="GE2">
-        <v>2.921750783920288</v>
+        <v>2.63408899307251</v>
       </c>
       <c r="GF2">
-        <v>-3.725469827651978</v>
+        <v>-4.947169780731201</v>
       </c>
       <c r="GG2">
-        <v>11.1890115737915</v>
+        <v>10.20763969421387</v>
       </c>
       <c r="GH2">
-        <v>0.471612274646759</v>
+        <v>0.2640000283718109</v>
       </c>
       <c r="GI2">
-        <v>4.553100109100342</v>
+        <v>5.167256355285645</v>
       </c>
       <c r="GJ2">
-        <v>-1.704090714454651</v>
+        <v>-1.331825494766235</v>
       </c>
       <c r="GK2">
-        <v>-2.261673450469971</v>
+        <v>-3.16185998916626</v>
       </c>
       <c r="GL2">
-        <v>-3.984372138977051</v>
+        <v>-4.056259632110596</v>
       </c>
       <c r="GM2">
-        <v>4.742350578308105</v>
+        <v>4.581347942352295</v>
       </c>
       <c r="GN2">
-        <v>8.185739517211914</v>
+        <v>8.338714599609375</v>
       </c>
       <c r="GO2">
-        <v>5.803316593170166</v>
+        <v>4.885416030883789</v>
       </c>
       <c r="GP2">
-        <v>0.2998165786266327</v>
+        <v>-0.1047305539250374</v>
       </c>
       <c r="GQ2">
-        <v>-1.270182013511658</v>
+        <v>-1.082435488700867</v>
       </c>
       <c r="GR2">
-        <v>1.228936553001404</v>
+        <v>1.028027057647705</v>
       </c>
       <c r="GS2">
-        <v>12.55125522613525</v>
+        <v>12.48762512207031</v>
       </c>
       <c r="GT2">
-        <v>-1.97022020816803</v>
+        <v>-1.055774331092834</v>
       </c>
       <c r="GU2">
-        <v>-7.328299999237061</v>
+        <v>-6.93585205078125</v>
       </c>
       <c r="GV2">
-        <v>1.03541374206543</v>
+        <v>0.1994847357273102</v>
       </c>
       <c r="GW2">
-        <v>0.234134778380394</v>
+        <v>0.8690893054008484</v>
       </c>
       <c r="GX2">
-        <v>0.810953676700592</v>
+        <v>0.1481655538082123</v>
       </c>
       <c r="GY2">
-        <v>0.1364533603191376</v>
+        <v>-0.06112600117921829</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Financial Services.xlsx
+++ b/static/Models/Classification/Equation/Financial Services.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>9.600517272949219</v>
+        <v>10.14317798614502</v>
       </c>
       <c r="C2">
-        <v>0.3925055265426636</v>
+        <v>0.8046850562095642</v>
       </c>
       <c r="D2">
-        <v>-6.354586601257324</v>
+        <v>-6.431990146636963</v>
       </c>
       <c r="E2">
-        <v>6.380733489990234</v>
+        <v>6.717300415039062</v>
       </c>
       <c r="F2">
-        <v>-1.178873300552368</v>
+        <v>-0.5782429575920105</v>
       </c>
       <c r="G2">
-        <v>-4.132195949554443</v>
+        <v>-3.875848293304443</v>
       </c>
       <c r="H2">
-        <v>-0.1975056678056717</v>
+        <v>-0.2018479555845261</v>
       </c>
       <c r="I2">
-        <v>1.506818771362305</v>
+        <v>1.198503851890564</v>
       </c>
       <c r="J2">
-        <v>-7.714577198028564</v>
+        <v>-7.519453525543213</v>
       </c>
       <c r="K2">
-        <v>-0.9217364192008972</v>
+        <v>-0.8442223072052002</v>
       </c>
       <c r="L2">
-        <v>0.2014150321483612</v>
+        <v>0.4647637903690338</v>
       </c>
       <c r="M2">
-        <v>-0.6300838589668274</v>
+        <v>-0.4334015250205994</v>
       </c>
       <c r="N2">
-        <v>-0.2760558724403381</v>
+        <v>-0.2930556535720825</v>
       </c>
       <c r="O2">
-        <v>-0.3736885190010071</v>
+        <v>-0.3849203288555145</v>
       </c>
       <c r="P2">
-        <v>11.53315353393555</v>
+        <v>11.53897762298584</v>
       </c>
       <c r="Q2">
-        <v>-9.42646598815918</v>
+        <v>-8.983160018920898</v>
       </c>
       <c r="R2">
-        <v>1.867030024528503</v>
+        <v>1.554221272468567</v>
       </c>
       <c r="S2">
-        <v>18.98671913146973</v>
+        <v>18.46552467346191</v>
       </c>
       <c r="T2">
-        <v>2.098042011260986</v>
+        <v>1.723650455474854</v>
       </c>
       <c r="U2">
-        <v>0.3361527025699615</v>
+        <v>0.141809806227684</v>
       </c>
       <c r="V2">
-        <v>-0.6176974773406982</v>
+        <v>-0.3678570687770844</v>
       </c>
       <c r="W2">
-        <v>4.017015933990479</v>
+        <v>4.394078731536865</v>
       </c>
       <c r="X2">
-        <v>0.6032925248146057</v>
+        <v>-0.04925639927387238</v>
       </c>
       <c r="Y2">
-        <v>-1.465049028396606</v>
+        <v>-1.53949236869812</v>
       </c>
       <c r="Z2">
-        <v>-1.327386856079102</v>
+        <v>-1.693260788917542</v>
       </c>
       <c r="AA2">
-        <v>-0.06494132429361343</v>
+        <v>0.03297583758831024</v>
       </c>
       <c r="AB2">
-        <v>-3.313639402389526</v>
+        <v>-3.075359106063843</v>
       </c>
       <c r="AC2">
-        <v>10.48880863189697</v>
+        <v>10.75387668609619</v>
       </c>
       <c r="AD2">
-        <v>-1.267439365386963</v>
+        <v>-1.633947610855103</v>
       </c>
       <c r="AE2">
-        <v>0.6289584636688232</v>
+        <v>0.9310969114303589</v>
       </c>
       <c r="AF2">
-        <v>1.277811527252197</v>
+        <v>1.307121157646179</v>
       </c>
       <c r="AG2">
-        <v>-15.36494255065918</v>
+        <v>-15.54934692382812</v>
       </c>
       <c r="AH2">
-        <v>-5.213855743408203</v>
+        <v>-4.73183012008667</v>
       </c>
       <c r="AI2">
-        <v>-5.994400024414062</v>
+        <v>-6.263521194458008</v>
       </c>
       <c r="AJ2">
-        <v>-0.02961294166743755</v>
+        <v>-0.5085071921348572</v>
       </c>
       <c r="AK2">
-        <v>1.411103248596191</v>
+        <v>1.280764937400818</v>
       </c>
       <c r="AL2">
-        <v>0.1191114783287048</v>
+        <v>0.07530803233385086</v>
       </c>
       <c r="AM2">
-        <v>5.874942779541016</v>
+        <v>5.963661670684814</v>
       </c>
       <c r="AN2">
-        <v>-8.028444290161133</v>
+        <v>-7.913901329040527</v>
       </c>
       <c r="AO2">
-        <v>2.486109733581543</v>
+        <v>2.324122667312622</v>
       </c>
       <c r="AP2">
-        <v>-0.03961298242211342</v>
+        <v>0.04567363485693932</v>
       </c>
       <c r="AQ2">
-        <v>0.1369525492191315</v>
+        <v>0.07009367644786835</v>
       </c>
       <c r="AR2">
-        <v>21.13579368591309</v>
+        <v>21.51114463806152</v>
       </c>
       <c r="AS2">
-        <v>-6.139750003814697</v>
+        <v>-5.824384689331055</v>
       </c>
       <c r="AT2">
-        <v>-10.48279571533203</v>
+        <v>-10.05789279937744</v>
       </c>
       <c r="AU2">
-        <v>-2.243134021759033</v>
+        <v>-2.068936109542847</v>
       </c>
       <c r="AV2">
-        <v>-0.0227529089897871</v>
+        <v>-0.1320806741714478</v>
       </c>
       <c r="AW2">
-        <v>-8.353536605834961</v>
+        <v>-8.156826019287109</v>
       </c>
       <c r="AX2">
-        <v>2.002672433853149</v>
+        <v>2.247479438781738</v>
       </c>
       <c r="AY2">
-        <v>-7.253018856048584</v>
+        <v>-6.846627235412598</v>
       </c>
       <c r="AZ2">
-        <v>-2.553724765777588</v>
+        <v>-2.896316289901733</v>
       </c>
       <c r="BA2">
-        <v>-9.097081184387207</v>
+        <v>-9.346194267272949</v>
       </c>
       <c r="BB2">
-        <v>-14.51539516448975</v>
+        <v>-13.76084518432617</v>
       </c>
       <c r="BC2">
-        <v>0.7507849335670471</v>
+        <v>0.4051712155342102</v>
       </c>
       <c r="BD2">
-        <v>-1.926765084266663</v>
+        <v>-2.272341728210449</v>
       </c>
       <c r="BE2">
-        <v>-0.02023823373019695</v>
+        <v>-0.3925575911998749</v>
       </c>
       <c r="BF2">
-        <v>-2.142755508422852</v>
+        <v>-1.339269638061523</v>
       </c>
       <c r="BG2">
-        <v>0.7002943754196167</v>
+        <v>0.4664550721645355</v>
       </c>
       <c r="BH2">
-        <v>-0.5068991184234619</v>
+        <v>-0.2405956536531448</v>
       </c>
       <c r="BI2">
-        <v>4.442001342773438</v>
+        <v>4.084805965423584</v>
       </c>
       <c r="BJ2">
-        <v>1.778434991836548</v>
+        <v>2.030990839004517</v>
       </c>
       <c r="BK2">
-        <v>0.8199567794799805</v>
+        <v>1.269397616386414</v>
       </c>
       <c r="BL2">
-        <v>0.3546974062919617</v>
+        <v>0.8061609864234924</v>
       </c>
       <c r="BM2">
-        <v>1.680811762809753</v>
+        <v>1.181978344917297</v>
       </c>
       <c r="BN2">
-        <v>-4.947062969207764</v>
+        <v>-4.446691513061523</v>
       </c>
       <c r="BO2">
-        <v>-9.20458984375</v>
+        <v>-8.474645614624023</v>
       </c>
       <c r="BP2">
-        <v>22.17178535461426</v>
+        <v>22.52645492553711</v>
       </c>
       <c r="BQ2">
-        <v>7.715271949768066</v>
+        <v>7.686073780059814</v>
       </c>
       <c r="BR2">
-        <v>1.139033555984497</v>
+        <v>1.088585734367371</v>
       </c>
       <c r="BS2">
-        <v>1.27754819393158</v>
+        <v>1.228353500366211</v>
       </c>
       <c r="BT2">
-        <v>0.8234707117080688</v>
+        <v>0.7445621490478516</v>
       </c>
       <c r="BU2">
-        <v>0.7307313084602356</v>
+        <v>0.2793990969657898</v>
       </c>
       <c r="BV2">
-        <v>-6.534707069396973</v>
+        <v>-6.259217739105225</v>
       </c>
       <c r="BW2">
-        <v>1.443657517433167</v>
+        <v>1.007686495780945</v>
       </c>
       <c r="BX2">
-        <v>-10.35635852813721</v>
+        <v>-10.10092067718506</v>
       </c>
       <c r="BY2">
-        <v>0.2604123055934906</v>
+        <v>0.1086260452866554</v>
       </c>
       <c r="BZ2">
-        <v>-4.337509155273438</v>
+        <v>-4.057613372802734</v>
       </c>
       <c r="CA2">
-        <v>-1.737594723701477</v>
+        <v>-1.721879959106445</v>
       </c>
       <c r="CB2">
-        <v>2.209894180297852</v>
+        <v>1.93622350692749</v>
       </c>
       <c r="CC2">
-        <v>-0.5329343676567078</v>
+        <v>-0.6486730575561523</v>
       </c>
       <c r="CD2">
-        <v>1.402016162872314</v>
+        <v>1.356905698776245</v>
       </c>
       <c r="CE2">
-        <v>10.17675399780273</v>
+        <v>10.07021236419678</v>
       </c>
       <c r="CF2">
-        <v>4.242204189300537</v>
+        <v>4.604666709899902</v>
       </c>
       <c r="CG2">
-        <v>2.146226167678833</v>
+        <v>2.66008186340332</v>
       </c>
       <c r="CH2">
-        <v>-1.890515565872192</v>
+        <v>-2.216394662857056</v>
       </c>
       <c r="CI2">
-        <v>-1.477734088897705</v>
+        <v>-1.807383179664612</v>
       </c>
       <c r="CJ2">
-        <v>11.22715282440186</v>
+        <v>10.71215629577637</v>
       </c>
       <c r="CK2">
-        <v>-0.2131221741437912</v>
+        <v>-0.5813519358634949</v>
       </c>
       <c r="CL2">
-        <v>-1.741425395011902</v>
+        <v>-1.853854298591614</v>
       </c>
       <c r="CM2">
-        <v>-3.256077289581299</v>
+        <v>-3.258608341217041</v>
       </c>
       <c r="CN2">
-        <v>-2.322391986846924</v>
+        <v>-1.707458257675171</v>
       </c>
       <c r="CO2">
-        <v>0.1605980545282364</v>
+        <v>-0.1564670950174332</v>
       </c>
       <c r="CP2">
-        <v>5.224317073822021</v>
+        <v>5.866422653198242</v>
       </c>
       <c r="CQ2">
-        <v>1.458519101142883</v>
+        <v>1.288387179374695</v>
       </c>
       <c r="CR2">
-        <v>-1.991788148880005</v>
+        <v>-2.172855615615845</v>
       </c>
       <c r="CS2">
-        <v>-1.631225109100342</v>
+        <v>-1.984248042106628</v>
       </c>
       <c r="CT2">
-        <v>1.942134618759155</v>
+        <v>1.8139328956604</v>
       </c>
       <c r="CU2">
-        <v>-0.5631457567214966</v>
+        <v>-0.0008759424090385437</v>
       </c>
       <c r="CV2">
-        <v>-0.2913074493408203</v>
+        <v>-0.6601327061653137</v>
       </c>
       <c r="CW2">
-        <v>-17.29253578186035</v>
+        <v>-17.79535865783691</v>
       </c>
       <c r="CX2">
-        <v>1.128013849258423</v>
+        <v>1.362349390983582</v>
       </c>
       <c r="CY2">
-        <v>-2.383563756942749</v>
+        <v>-2.18342661857605</v>
       </c>
       <c r="CZ2">
-        <v>-1.247044324874878</v>
+        <v>-1.120928883552551</v>
       </c>
       <c r="DA2">
-        <v>-2.497212648391724</v>
+        <v>-2.196531057357788</v>
       </c>
       <c r="DB2">
-        <v>-4.978382587432861</v>
+        <v>-4.615075588226318</v>
       </c>
       <c r="DC2">
-        <v>0.1405256539583206</v>
+        <v>0.457070529460907</v>
       </c>
       <c r="DD2">
-        <v>-13.82500839233398</v>
+        <v>-13.70872211456299</v>
       </c>
       <c r="DE2">
-        <v>-2.525295257568359</v>
+        <v>-2.827008962631226</v>
       </c>
       <c r="DF2">
-        <v>4.200507164001465</v>
+        <v>4.69057559967041</v>
       </c>
       <c r="DG2">
-        <v>1.435638070106506</v>
+        <v>1.027982711791992</v>
       </c>
       <c r="DH2">
-        <v>1.085307598114014</v>
+        <v>1.008512258529663</v>
       </c>
       <c r="DI2">
-        <v>0.6038278937339783</v>
+        <v>1.286775588989258</v>
       </c>
       <c r="DJ2">
-        <v>-8.157284736633301</v>
+        <v>-8.55280590057373</v>
       </c>
       <c r="DK2">
-        <v>7.947379589080811</v>
+        <v>7.458158493041992</v>
       </c>
       <c r="DL2">
-        <v>7.195440769195557</v>
+        <v>7.923021793365479</v>
       </c>
       <c r="DM2">
-        <v>-0.5425733327865601</v>
+        <v>-0.1637597978115082</v>
       </c>
       <c r="DN2">
-        <v>0.2769723236560822</v>
+        <v>0.04283225163817406</v>
       </c>
       <c r="DO2">
-        <v>3.427395820617676</v>
+        <v>3.521448373794556</v>
       </c>
       <c r="DP2">
-        <v>3.120213985443115</v>
+        <v>3.709296464920044</v>
       </c>
       <c r="DQ2">
-        <v>-0.7694522738456726</v>
+        <v>-1.06061851978302</v>
       </c>
       <c r="DR2">
-        <v>-1.305957913398743</v>
+        <v>-1.940604567527771</v>
       </c>
       <c r="DS2">
-        <v>-7.515993595123291</v>
+        <v>-8.02073860168457</v>
       </c>
       <c r="DT2">
-        <v>-13.01143169403076</v>
+        <v>-12.59506988525391</v>
       </c>
       <c r="DU2">
-        <v>-4.612106800079346</v>
+        <v>-4.167168140411377</v>
       </c>
       <c r="DV2">
-        <v>1.835068583488464</v>
+        <v>1.648399829864502</v>
       </c>
       <c r="DW2">
-        <v>-0.6309934854507446</v>
+        <v>0.05212021619081497</v>
       </c>
       <c r="DX2">
-        <v>-0.3018065094947815</v>
+        <v>-0.6090748310089111</v>
       </c>
       <c r="DY2">
-        <v>-3.05850625038147</v>
+        <v>-3.525398969650269</v>
       </c>
       <c r="DZ2">
-        <v>-0.4280195832252502</v>
+        <v>0.3995533287525177</v>
       </c>
       <c r="EA2">
-        <v>-5.223984241485596</v>
+        <v>-5.294607162475586</v>
       </c>
       <c r="EB2">
-        <v>-2.155488967895508</v>
+        <v>-2.502842664718628</v>
       </c>
       <c r="EC2">
-        <v>-0.1208253130316734</v>
+        <v>-0.1993476003408432</v>
       </c>
       <c r="ED2">
-        <v>6.522656440734863</v>
+        <v>6.157395362854004</v>
       </c>
       <c r="EE2">
-        <v>-1.194710612297058</v>
+        <v>-1.52827262878418</v>
       </c>
       <c r="EF2">
-        <v>-6.983910083770752</v>
+        <v>-6.979435920715332</v>
       </c>
       <c r="EG2">
-        <v>-2.468966007232666</v>
+        <v>-2.215109348297119</v>
       </c>
       <c r="EH2">
-        <v>-8.993511199951172</v>
+        <v>-9.04595947265625</v>
       </c>
       <c r="EI2">
-        <v>-1.946427583694458</v>
+        <v>-1.59344220161438</v>
       </c>
       <c r="EJ2">
-        <v>2.938347578048706</v>
+        <v>3.125821113586426</v>
       </c>
       <c r="EK2">
-        <v>0.2254713028669357</v>
+        <v>-0.1540071964263916</v>
       </c>
       <c r="EL2">
-        <v>0.6318007707595825</v>
+        <v>0.2901042997837067</v>
       </c>
       <c r="EM2">
-        <v>6.943648338317871</v>
+        <v>7.226742744445801</v>
       </c>
       <c r="EN2">
-        <v>-0.5351353883743286</v>
+        <v>-0.2486387491226196</v>
       </c>
       <c r="EO2">
-        <v>16.95811462402344</v>
+        <v>17.41733932495117</v>
       </c>
       <c r="EP2">
-        <v>-7.976410388946533</v>
+        <v>-7.793656826019287</v>
       </c>
       <c r="EQ2">
-        <v>-12.54739761352539</v>
+        <v>-12.69136810302734</v>
       </c>
       <c r="ER2">
-        <v>-0.9325957894325256</v>
+        <v>-0.5380586981773376</v>
       </c>
       <c r="ES2">
-        <v>2.442919492721558</v>
+        <v>2.736928462982178</v>
       </c>
       <c r="ET2">
-        <v>10.6192741394043</v>
+        <v>10.59558391571045</v>
       </c>
       <c r="EU2">
-        <v>12.4694242477417</v>
+        <v>12.03668212890625</v>
       </c>
       <c r="EV2">
-        <v>-1.310825943946838</v>
+        <v>-0.9467459917068481</v>
       </c>
       <c r="EW2">
-        <v>5.940383911132812</v>
+        <v>5.614044666290283</v>
       </c>
       <c r="EX2">
-        <v>5.304052352905273</v>
+        <v>5.865255832672119</v>
       </c>
       <c r="EY2">
-        <v>0.4256093800067902</v>
+        <v>0.07970979064702988</v>
       </c>
       <c r="EZ2">
-        <v>5.203882217407227</v>
+        <v>5.097177505493164</v>
       </c>
       <c r="FA2">
-        <v>0.4257792532444</v>
+        <v>-0.3704771101474762</v>
       </c>
       <c r="FB2">
-        <v>1.18056333065033</v>
+        <v>0.9678564071655273</v>
       </c>
       <c r="FC2">
-        <v>-6.154569625854492</v>
+        <v>-5.633817195892334</v>
       </c>
       <c r="FD2">
-        <v>1.46272337436676</v>
+        <v>1.598661303520203</v>
       </c>
       <c r="FE2">
-        <v>-3.549121856689453</v>
+        <v>-4.076184272766113</v>
       </c>
       <c r="FF2">
-        <v>7.249986171722412</v>
+        <v>7.054857730865479</v>
       </c>
       <c r="FG2">
-        <v>-11.47715854644775</v>
+        <v>-11.86027812957764</v>
       </c>
       <c r="FH2">
-        <v>1.311877012252808</v>
+        <v>1.689372420310974</v>
       </c>
       <c r="FI2">
-        <v>-8.359723091125488</v>
+        <v>-8.015157699584961</v>
       </c>
       <c r="FJ2">
-        <v>4.762417793273926</v>
+        <v>4.529626846313477</v>
       </c>
       <c r="FK2">
-        <v>-7.241531848907471</v>
+        <v>-6.641384601593018</v>
       </c>
       <c r="FL2">
-        <v>3.660255670547485</v>
+        <v>3.932713747024536</v>
       </c>
       <c r="FM2">
-        <v>6.01201057434082</v>
+        <v>6.281454086303711</v>
       </c>
       <c r="FN2">
-        <v>3.341046810150146</v>
+        <v>3.899747371673584</v>
       </c>
       <c r="FO2">
-        <v>-0.9820740222930908</v>
+        <v>-1.237079977989197</v>
       </c>
       <c r="FP2">
-        <v>0.1893047988414764</v>
+        <v>0.2118251770734787</v>
       </c>
       <c r="FQ2">
-        <v>-0.6170240044593811</v>
+        <v>-0.973237931728363</v>
       </c>
       <c r="FR2">
-        <v>2.896458148956299</v>
+        <v>2.705773115158081</v>
       </c>
       <c r="FS2">
-        <v>-0.7548577189445496</v>
+        <v>-0.9391435980796814</v>
       </c>
       <c r="FT2">
-        <v>-2.969261884689331</v>
+        <v>-3.123382806777954</v>
       </c>
       <c r="FU2">
-        <v>1.223282933235168</v>
+        <v>0.8152787089347839</v>
       </c>
       <c r="FV2">
-        <v>1.38634192943573</v>
+        <v>0.9810450077056885</v>
       </c>
       <c r="FW2">
-        <v>-0.2774254381656647</v>
+        <v>-0.6840417385101318</v>
       </c>
       <c r="FX2">
-        <v>-1.782079100608826</v>
+        <v>-1.433655738830566</v>
       </c>
       <c r="FY2">
-        <v>1.286263823509216</v>
+        <v>1.155415654182434</v>
       </c>
       <c r="FZ2">
-        <v>0.7970998287200928</v>
+        <v>0.5095178484916687</v>
       </c>
       <c r="GA2">
-        <v>-1.819244265556335</v>
+        <v>-1.810037136077881</v>
       </c>
       <c r="GB2">
-        <v>0.02900595217943192</v>
+        <v>-0.008452694863080978</v>
       </c>
       <c r="GC2">
-        <v>2.188534259796143</v>
+        <v>1.679950356483459</v>
       </c>
       <c r="GD2">
-        <v>-4.257250785827637</v>
+        <v>-4.748543262481689</v>
       </c>
       <c r="GE2">
-        <v>2.63408899307251</v>
+        <v>2.299767255783081</v>
       </c>
       <c r="GF2">
-        <v>-4.947169780731201</v>
+        <v>-4.944641590118408</v>
       </c>
       <c r="GG2">
-        <v>10.20763969421387</v>
+        <v>10.19582366943359</v>
       </c>
       <c r="GH2">
-        <v>0.2640000283718109</v>
+        <v>0.05996696650981903</v>
       </c>
       <c r="GI2">
-        <v>5.167256355285645</v>
+        <v>5.445964336395264</v>
       </c>
       <c r="GJ2">
-        <v>-1.331825494766235</v>
+        <v>-1.353208661079407</v>
       </c>
       <c r="GK2">
-        <v>-3.16185998916626</v>
+        <v>-3.561598539352417</v>
       </c>
       <c r="GL2">
-        <v>-4.056259632110596</v>
+        <v>-3.672628164291382</v>
       </c>
       <c r="GM2">
-        <v>4.581347942352295</v>
+        <v>4.67548656463623</v>
       </c>
       <c r="GN2">
-        <v>8.338714599609375</v>
+        <v>8.454242706298828</v>
       </c>
       <c r="GO2">
-        <v>4.885416030883789</v>
+        <v>5.120653629302979</v>
       </c>
       <c r="GP2">
-        <v>-0.1047305539250374</v>
+        <v>-0.3428499102592468</v>
       </c>
       <c r="GQ2">
-        <v>-1.082435488700867</v>
+        <v>-1.457961559295654</v>
       </c>
       <c r="GR2">
-        <v>1.028027057647705</v>
+        <v>1.482720494270325</v>
       </c>
       <c r="GS2">
-        <v>12.48762512207031</v>
+        <v>12.73003482818604</v>
       </c>
       <c r="GT2">
-        <v>-1.055774331092834</v>
+        <v>-0.5841370820999146</v>
       </c>
       <c r="GU2">
-        <v>-6.93585205078125</v>
+        <v>-6.860552310943604</v>
       </c>
       <c r="GV2">
-        <v>0.1994847357273102</v>
+        <v>0.3366566300392151</v>
       </c>
       <c r="GW2">
-        <v>0.8690893054008484</v>
+        <v>1.051105380058289</v>
       </c>
       <c r="GX2">
-        <v>0.1481655538082123</v>
+        <v>0.02645475603640079</v>
       </c>
       <c r="GY2">
-        <v>-0.06112600117921829</v>
+        <v>-0.4185799062252045</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Financial Services.xlsx
+++ b/static/Models/Classification/Equation/Financial Services.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>10.14317798614502</v>
+        <v>8.680811882019043</v>
       </c>
       <c r="C2">
-        <v>0.8046850562095642</v>
+        <v>1.353637099266052</v>
       </c>
       <c r="D2">
-        <v>-6.431990146636963</v>
+        <v>-5.154279708862305</v>
       </c>
       <c r="E2">
-        <v>6.717300415039062</v>
+        <v>6.316329002380371</v>
       </c>
       <c r="F2">
-        <v>-0.5782429575920105</v>
+        <v>0.1898407489061356</v>
       </c>
       <c r="G2">
-        <v>-3.875848293304443</v>
+        <v>-3.099653482437134</v>
       </c>
       <c r="H2">
-        <v>-0.2018479555845261</v>
+        <v>-0.7156041264533997</v>
       </c>
       <c r="I2">
-        <v>1.198503851890564</v>
+        <v>2.066488742828369</v>
       </c>
       <c r="J2">
-        <v>-7.519453525543213</v>
+        <v>-8.753437995910645</v>
       </c>
       <c r="K2">
-        <v>-0.8442223072052002</v>
+        <v>-0.106716051697731</v>
       </c>
       <c r="L2">
-        <v>0.4647637903690338</v>
+        <v>-1.033283233642578</v>
       </c>
       <c r="M2">
-        <v>-0.4334015250205994</v>
+        <v>-0.196209117770195</v>
       </c>
       <c r="N2">
-        <v>-0.2930556535720825</v>
+        <v>0.457177460193634</v>
       </c>
       <c r="O2">
-        <v>-0.3849203288555145</v>
+        <v>0.3730001151561737</v>
       </c>
       <c r="P2">
-        <v>11.53897762298584</v>
+        <v>9.402600288391113</v>
       </c>
       <c r="Q2">
-        <v>-8.983160018920898</v>
+        <v>-7.80970573425293</v>
       </c>
       <c r="R2">
-        <v>1.554221272468567</v>
+        <v>1.307515501976013</v>
       </c>
       <c r="S2">
-        <v>18.46552467346191</v>
+        <v>18.62312126159668</v>
       </c>
       <c r="T2">
-        <v>1.723650455474854</v>
+        <v>3.199709892272949</v>
       </c>
       <c r="U2">
-        <v>0.141809806227684</v>
+        <v>-1.092934727668762</v>
       </c>
       <c r="V2">
-        <v>-0.3678570687770844</v>
+        <v>-0.4058602154254913</v>
       </c>
       <c r="W2">
-        <v>4.394078731536865</v>
+        <v>5.162441253662109</v>
       </c>
       <c r="X2">
-        <v>-0.04925639927387238</v>
+        <v>-0.4298258423805237</v>
       </c>
       <c r="Y2">
-        <v>-1.53949236869812</v>
+        <v>0.1251815557479858</v>
       </c>
       <c r="Z2">
-        <v>-1.693260788917542</v>
+        <v>-0.7873217463493347</v>
       </c>
       <c r="AA2">
-        <v>0.03297583758831024</v>
+        <v>-0.3775514364242554</v>
       </c>
       <c r="AB2">
-        <v>-3.075359106063843</v>
+        <v>-4.678532600402832</v>
       </c>
       <c r="AC2">
-        <v>10.75387668609619</v>
+        <v>11.0924072265625</v>
       </c>
       <c r="AD2">
-        <v>-1.633947610855103</v>
+        <v>-0.7263434529304504</v>
       </c>
       <c r="AE2">
-        <v>0.9310969114303589</v>
+        <v>-1.174945592880249</v>
       </c>
       <c r="AF2">
-        <v>1.307121157646179</v>
+        <v>0.2553237974643707</v>
       </c>
       <c r="AG2">
-        <v>-15.54934692382812</v>
+        <v>-14.98433876037598</v>
       </c>
       <c r="AH2">
-        <v>-4.73183012008667</v>
+        <v>-4.985089302062988</v>
       </c>
       <c r="AI2">
-        <v>-6.263521194458008</v>
+        <v>-6.513027667999268</v>
       </c>
       <c r="AJ2">
-        <v>-0.5085071921348572</v>
+        <v>-0.794030487537384</v>
       </c>
       <c r="AK2">
-        <v>1.280764937400818</v>
+        <v>1.062229633331299</v>
       </c>
       <c r="AL2">
-        <v>0.07530803233385086</v>
+        <v>-0.4963855743408203</v>
       </c>
       <c r="AM2">
-        <v>5.963661670684814</v>
+        <v>3.765206336975098</v>
       </c>
       <c r="AN2">
-        <v>-7.913901329040527</v>
+        <v>-10.01537227630615</v>
       </c>
       <c r="AO2">
-        <v>2.324122667312622</v>
+        <v>0.2186900228261948</v>
       </c>
       <c r="AP2">
-        <v>0.04567363485693932</v>
+        <v>0.5831207036972046</v>
       </c>
       <c r="AQ2">
-        <v>0.07009367644786835</v>
+        <v>-0.409527063369751</v>
       </c>
       <c r="AR2">
-        <v>21.51114463806152</v>
+        <v>22.71059799194336</v>
       </c>
       <c r="AS2">
-        <v>-5.824384689331055</v>
+        <v>-6.801484107971191</v>
       </c>
       <c r="AT2">
-        <v>-10.05789279937744</v>
+        <v>-9.226712226867676</v>
       </c>
       <c r="AU2">
-        <v>-2.068936109542847</v>
+        <v>-2.14128565788269</v>
       </c>
       <c r="AV2">
-        <v>-0.1320806741714478</v>
+        <v>-0.3633028864860535</v>
       </c>
       <c r="AW2">
-        <v>-8.156826019287109</v>
+        <v>-8.196860313415527</v>
       </c>
       <c r="AX2">
-        <v>2.247479438781738</v>
+        <v>3.958163499832153</v>
       </c>
       <c r="AY2">
-        <v>-6.846627235412598</v>
+        <v>-6.542404651641846</v>
       </c>
       <c r="AZ2">
-        <v>-2.896316289901733</v>
+        <v>-3.579929351806641</v>
       </c>
       <c r="BA2">
-        <v>-9.346194267272949</v>
+        <v>-8.684800148010254</v>
       </c>
       <c r="BB2">
-        <v>-13.76084518432617</v>
+        <v>-12.69441318511963</v>
       </c>
       <c r="BC2">
-        <v>0.4051712155342102</v>
+        <v>-0.4729608595371246</v>
       </c>
       <c r="BD2">
-        <v>-2.272341728210449</v>
+        <v>-1.379572033882141</v>
       </c>
       <c r="BE2">
-        <v>-0.3925575911998749</v>
+        <v>0.6007132530212402</v>
       </c>
       <c r="BF2">
-        <v>-1.339269638061523</v>
+        <v>-0.1670713871717453</v>
       </c>
       <c r="BG2">
-        <v>0.4664550721645355</v>
+        <v>1.159770846366882</v>
       </c>
       <c r="BH2">
-        <v>-0.2405956536531448</v>
+        <v>1.977715969085693</v>
       </c>
       <c r="BI2">
-        <v>4.084805965423584</v>
+        <v>5.40786600112915</v>
       </c>
       <c r="BJ2">
-        <v>2.030990839004517</v>
+        <v>2.606487989425659</v>
       </c>
       <c r="BK2">
-        <v>1.269397616386414</v>
+        <v>-0.2636226117610931</v>
       </c>
       <c r="BL2">
-        <v>0.8061609864234924</v>
+        <v>-0.4920267164707184</v>
       </c>
       <c r="BM2">
-        <v>1.181978344917297</v>
+        <v>1.132549643516541</v>
       </c>
       <c r="BN2">
-        <v>-4.446691513061523</v>
+        <v>-3.104645013809204</v>
       </c>
       <c r="BO2">
-        <v>-8.474645614624023</v>
+        <v>-7.685449123382568</v>
       </c>
       <c r="BP2">
-        <v>22.52645492553711</v>
+        <v>20.57469749450684</v>
       </c>
       <c r="BQ2">
-        <v>7.686073780059814</v>
+        <v>8.378787994384766</v>
       </c>
       <c r="BR2">
-        <v>1.088585734367371</v>
+        <v>1.2994784116745</v>
       </c>
       <c r="BS2">
-        <v>1.228353500366211</v>
+        <v>0.9997766613960266</v>
       </c>
       <c r="BT2">
-        <v>0.7445621490478516</v>
+        <v>1.192886114120483</v>
       </c>
       <c r="BU2">
-        <v>0.2793990969657898</v>
+        <v>-0.05202075839042664</v>
       </c>
       <c r="BV2">
-        <v>-6.259217739105225</v>
+        <v>-4.8337082862854</v>
       </c>
       <c r="BW2">
-        <v>1.007686495780945</v>
+        <v>0.4795141816139221</v>
       </c>
       <c r="BX2">
-        <v>-10.10092067718506</v>
+        <v>-11.29420948028564</v>
       </c>
       <c r="BY2">
-        <v>0.1086260452866554</v>
+        <v>1.24275004863739</v>
       </c>
       <c r="BZ2">
-        <v>-4.057613372802734</v>
+        <v>-5.888814449310303</v>
       </c>
       <c r="CA2">
-        <v>-1.721879959106445</v>
+        <v>-2.920928001403809</v>
       </c>
       <c r="CB2">
-        <v>1.93622350692749</v>
+        <v>0.3682324290275574</v>
       </c>
       <c r="CC2">
-        <v>-0.6486730575561523</v>
+        <v>-0.4770877957344055</v>
       </c>
       <c r="CD2">
-        <v>1.356905698776245</v>
+        <v>1.053806304931641</v>
       </c>
       <c r="CE2">
-        <v>10.07021236419678</v>
+        <v>8.330390930175781</v>
       </c>
       <c r="CF2">
-        <v>4.604666709899902</v>
+        <v>3.559828996658325</v>
       </c>
       <c r="CG2">
-        <v>2.66008186340332</v>
+        <v>2.818020105361938</v>
       </c>
       <c r="CH2">
-        <v>-2.216394662857056</v>
+        <v>-2.980873107910156</v>
       </c>
       <c r="CI2">
-        <v>-1.807383179664612</v>
+        <v>-0.864755392074585</v>
       </c>
       <c r="CJ2">
-        <v>10.71215629577637</v>
+        <v>9.838838577270508</v>
       </c>
       <c r="CK2">
-        <v>-0.5813519358634949</v>
+        <v>-0.5087889432907104</v>
       </c>
       <c r="CL2">
-        <v>-1.853854298591614</v>
+        <v>-1.174832463264465</v>
       </c>
       <c r="CM2">
-        <v>-3.258608341217041</v>
+        <v>-5.140210628509521</v>
       </c>
       <c r="CN2">
-        <v>-1.707458257675171</v>
+        <v>-0.874341607093811</v>
       </c>
       <c r="CO2">
-        <v>-0.1564670950174332</v>
+        <v>0.04847303032875061</v>
       </c>
       <c r="CP2">
-        <v>5.866422653198242</v>
+        <v>7.051278114318848</v>
       </c>
       <c r="CQ2">
-        <v>1.288387179374695</v>
+        <v>2.498302459716797</v>
       </c>
       <c r="CR2">
-        <v>-2.172855615615845</v>
+        <v>-2.180077075958252</v>
       </c>
       <c r="CS2">
-        <v>-1.984248042106628</v>
+        <v>-0.9817312359809875</v>
       </c>
       <c r="CT2">
-        <v>1.8139328956604</v>
+        <v>1.870558500289917</v>
       </c>
       <c r="CU2">
-        <v>-0.0008759424090385437</v>
+        <v>0.9501053094863892</v>
       </c>
       <c r="CV2">
-        <v>-0.6601327061653137</v>
+        <v>-0.3931341469287872</v>
       </c>
       <c r="CW2">
-        <v>-17.79535865783691</v>
+        <v>-17.04402542114258</v>
       </c>
       <c r="CX2">
-        <v>1.362349390983582</v>
+        <v>2.820264339447021</v>
       </c>
       <c r="CY2">
-        <v>-2.18342661857605</v>
+        <v>-3.057411432266235</v>
       </c>
       <c r="CZ2">
-        <v>-1.120928883552551</v>
+        <v>-2.600680351257324</v>
       </c>
       <c r="DA2">
-        <v>-2.196531057357788</v>
+        <v>-2.151113271713257</v>
       </c>
       <c r="DB2">
-        <v>-4.615075588226318</v>
+        <v>-3.879604816436768</v>
       </c>
       <c r="DC2">
-        <v>0.457070529460907</v>
+        <v>-0.187527671456337</v>
       </c>
       <c r="DD2">
-        <v>-13.70872211456299</v>
+        <v>-14.59621143341064</v>
       </c>
       <c r="DE2">
-        <v>-2.827008962631226</v>
+        <v>-1.695756673812866</v>
       </c>
       <c r="DF2">
-        <v>4.69057559967041</v>
+        <v>3.536239624023438</v>
       </c>
       <c r="DG2">
-        <v>1.027982711791992</v>
+        <v>-0.06094207242131233</v>
       </c>
       <c r="DH2">
-        <v>1.008512258529663</v>
+        <v>1.462994575500488</v>
       </c>
       <c r="DI2">
-        <v>1.286775588989258</v>
+        <v>0.5405489206314087</v>
       </c>
       <c r="DJ2">
-        <v>-8.55280590057373</v>
+        <v>-7.922373294830322</v>
       </c>
       <c r="DK2">
-        <v>7.458158493041992</v>
+        <v>7.419782638549805</v>
       </c>
       <c r="DL2">
-        <v>7.923021793365479</v>
+        <v>6.814119338989258</v>
       </c>
       <c r="DM2">
-        <v>-0.1637597978115082</v>
+        <v>1.23188316822052</v>
       </c>
       <c r="DN2">
-        <v>0.04283225163817406</v>
+        <v>0.5511683821678162</v>
       </c>
       <c r="DO2">
-        <v>3.521448373794556</v>
+        <v>1.173369288444519</v>
       </c>
       <c r="DP2">
-        <v>3.709296464920044</v>
+        <v>2.239737510681152</v>
       </c>
       <c r="DQ2">
-        <v>-1.06061851978302</v>
+        <v>-0.4656494557857513</v>
       </c>
       <c r="DR2">
-        <v>-1.940604567527771</v>
+        <v>-1.338240385055542</v>
       </c>
       <c r="DS2">
-        <v>-8.02073860168457</v>
+        <v>-8.835905075073242</v>
       </c>
       <c r="DT2">
-        <v>-12.59506988525391</v>
+        <v>-11.16485691070557</v>
       </c>
       <c r="DU2">
-        <v>-4.167168140411377</v>
+        <v>-4.738729953765869</v>
       </c>
       <c r="DV2">
-        <v>1.648399829864502</v>
+        <v>-0.8241314888000488</v>
       </c>
       <c r="DW2">
-        <v>0.05212021619081497</v>
+        <v>0.2388027608394623</v>
       </c>
       <c r="DX2">
-        <v>-0.6090748310089111</v>
+        <v>-0.184404581785202</v>
       </c>
       <c r="DY2">
-        <v>-3.525398969650269</v>
+        <v>-3.001270532608032</v>
       </c>
       <c r="DZ2">
-        <v>0.3995533287525177</v>
+        <v>2.032976865768433</v>
       </c>
       <c r="EA2">
-        <v>-5.294607162475586</v>
+        <v>-5.295736789703369</v>
       </c>
       <c r="EB2">
-        <v>-2.502842664718628</v>
+        <v>-1.688294172286987</v>
       </c>
       <c r="EC2">
-        <v>-0.1993476003408432</v>
+        <v>-0.7391153573989868</v>
       </c>
       <c r="ED2">
-        <v>6.157395362854004</v>
+        <v>7.65723180770874</v>
       </c>
       <c r="EE2">
-        <v>-1.52827262878418</v>
+        <v>-0.4832653701305389</v>
       </c>
       <c r="EF2">
-        <v>-6.979435920715332</v>
+        <v>-6.527964115142822</v>
       </c>
       <c r="EG2">
-        <v>-2.215109348297119</v>
+        <v>-4.283313274383545</v>
       </c>
       <c r="EH2">
-        <v>-9.04595947265625</v>
+        <v>-10.17905235290527</v>
       </c>
       <c r="EI2">
-        <v>-1.59344220161438</v>
+        <v>-3.596472024917603</v>
       </c>
       <c r="EJ2">
-        <v>3.125821113586426</v>
+        <v>2.965832471847534</v>
       </c>
       <c r="EK2">
-        <v>-0.1540071964263916</v>
+        <v>1.053059697151184</v>
       </c>
       <c r="EL2">
-        <v>0.2901042997837067</v>
+        <v>0.8224048018455505</v>
       </c>
       <c r="EM2">
-        <v>7.226742744445801</v>
+        <v>6.401470184326172</v>
       </c>
       <c r="EN2">
-        <v>-0.2486387491226196</v>
+        <v>-0.8532750010490417</v>
       </c>
       <c r="EO2">
-        <v>17.41733932495117</v>
+        <v>17.76348686218262</v>
       </c>
       <c r="EP2">
-        <v>-7.793656826019287</v>
+        <v>-8.232274055480957</v>
       </c>
       <c r="EQ2">
-        <v>-12.69136810302734</v>
+        <v>-11.73353385925293</v>
       </c>
       <c r="ER2">
-        <v>-0.5380586981773376</v>
+        <v>-1.345264911651611</v>
       </c>
       <c r="ES2">
-        <v>2.736928462982178</v>
+        <v>3.233049869537354</v>
       </c>
       <c r="ET2">
-        <v>10.59558391571045</v>
+        <v>8.583306312561035</v>
       </c>
       <c r="EU2">
-        <v>12.03668212890625</v>
+        <v>9.873034477233887</v>
       </c>
       <c r="EV2">
-        <v>-0.9467459917068481</v>
+        <v>-0.3040473759174347</v>
       </c>
       <c r="EW2">
-        <v>5.614044666290283</v>
+        <v>7.280794143676758</v>
       </c>
       <c r="EX2">
-        <v>5.865255832672119</v>
+        <v>7.149646759033203</v>
       </c>
       <c r="EY2">
-        <v>0.07970979064702988</v>
+        <v>0.3178575336933136</v>
       </c>
       <c r="EZ2">
-        <v>5.097177505493164</v>
+        <v>6.312079429626465</v>
       </c>
       <c r="FA2">
-        <v>-0.3704771101474762</v>
+        <v>-1.0890132188797</v>
       </c>
       <c r="FB2">
-        <v>0.9678564071655273</v>
+        <v>1.779850006103516</v>
       </c>
       <c r="FC2">
-        <v>-5.633817195892334</v>
+        <v>-6.405547618865967</v>
       </c>
       <c r="FD2">
-        <v>1.598661303520203</v>
+        <v>0.2394173592329025</v>
       </c>
       <c r="FE2">
-        <v>-4.076184272766113</v>
+        <v>-5.809823036193848</v>
       </c>
       <c r="FF2">
-        <v>7.054857730865479</v>
+        <v>7.91031551361084</v>
       </c>
       <c r="FG2">
-        <v>-11.86027812957764</v>
+        <v>-13.76859664916992</v>
       </c>
       <c r="FH2">
-        <v>1.689372420310974</v>
+        <v>-0.3910297453403473</v>
       </c>
       <c r="FI2">
-        <v>-8.015157699584961</v>
+        <v>-8.855509757995605</v>
       </c>
       <c r="FJ2">
-        <v>4.529626846313477</v>
+        <v>2.114277124404907</v>
       </c>
       <c r="FK2">
-        <v>-6.641384601593018</v>
+        <v>-5.409219264984131</v>
       </c>
       <c r="FL2">
-        <v>3.932713747024536</v>
+        <v>1.711584568023682</v>
       </c>
       <c r="FM2">
-        <v>6.281454086303711</v>
+        <v>6.834983825683594</v>
       </c>
       <c r="FN2">
-        <v>3.899747371673584</v>
+        <v>2.600510597229004</v>
       </c>
       <c r="FO2">
-        <v>-1.237079977989197</v>
+        <v>-0.6666673421859741</v>
       </c>
       <c r="FP2">
-        <v>0.2118251770734787</v>
+        <v>-1.297124624252319</v>
       </c>
       <c r="FQ2">
-        <v>-0.973237931728363</v>
+        <v>-0.6208871603012085</v>
       </c>
       <c r="FR2">
-        <v>2.705773115158081</v>
+        <v>3.283069849014282</v>
       </c>
       <c r="FS2">
-        <v>-0.9391435980796814</v>
+        <v>-0.5520794987678528</v>
       </c>
       <c r="FT2">
-        <v>-3.123382806777954</v>
+        <v>-2.446751832962036</v>
       </c>
       <c r="FU2">
-        <v>0.8152787089347839</v>
+        <v>2.316866874694824</v>
       </c>
       <c r="FV2">
-        <v>0.9810450077056885</v>
+        <v>0.8990668058395386</v>
       </c>
       <c r="FW2">
-        <v>-0.6840417385101318</v>
+        <v>0.8063215017318726</v>
       </c>
       <c r="FX2">
-        <v>-1.433655738830566</v>
+        <v>-0.6617732048034668</v>
       </c>
       <c r="FY2">
-        <v>1.155415654182434</v>
+        <v>-0.9144702553749084</v>
       </c>
       <c r="FZ2">
-        <v>0.5095178484916687</v>
+        <v>-0.5708191990852356</v>
       </c>
       <c r="GA2">
-        <v>-1.810037136077881</v>
+        <v>-0.9904831051826477</v>
       </c>
       <c r="GB2">
-        <v>-0.008452694863080978</v>
+        <v>0.974408745765686</v>
       </c>
       <c r="GC2">
-        <v>1.679950356483459</v>
+        <v>2.406484127044678</v>
       </c>
       <c r="GD2">
-        <v>-4.748543262481689</v>
+        <v>-3.331580638885498</v>
       </c>
       <c r="GE2">
-        <v>2.299767255783081</v>
+        <v>2.883001804351807</v>
       </c>
       <c r="GF2">
-        <v>-4.944641590118408</v>
+        <v>-6.041280269622803</v>
       </c>
       <c r="GG2">
-        <v>10.19582366943359</v>
+        <v>9.487589836120605</v>
       </c>
       <c r="GH2">
-        <v>0.05996696650981903</v>
+        <v>-0.9320793151855469</v>
       </c>
       <c r="GI2">
-        <v>5.445964336395264</v>
+        <v>3.304600954055786</v>
       </c>
       <c r="GJ2">
-        <v>-1.353208661079407</v>
+        <v>-1.192031741142273</v>
       </c>
       <c r="GK2">
-        <v>-3.561598539352417</v>
+        <v>-2.828087091445923</v>
       </c>
       <c r="GL2">
-        <v>-3.672628164291382</v>
+        <v>-4.722300052642822</v>
       </c>
       <c r="GM2">
-        <v>4.67548656463623</v>
+        <v>4.935290336608887</v>
       </c>
       <c r="GN2">
-        <v>8.454242706298828</v>
+        <v>8.010055541992188</v>
       </c>
       <c r="GO2">
-        <v>5.120653629302979</v>
+        <v>4.713699340820312</v>
       </c>
       <c r="GP2">
-        <v>-0.3428499102592468</v>
+        <v>0.3748320043087006</v>
       </c>
       <c r="GQ2">
-        <v>-1.457961559295654</v>
+        <v>-0.05023533850908279</v>
       </c>
       <c r="GR2">
-        <v>1.482720494270325</v>
+        <v>-0.1471557766199112</v>
       </c>
       <c r="GS2">
-        <v>12.73003482818604</v>
+        <v>14.7379674911499</v>
       </c>
       <c r="GT2">
-        <v>-0.5841370820999146</v>
+        <v>-1.329938530921936</v>
       </c>
       <c r="GU2">
-        <v>-6.860552310943604</v>
+        <v>-7.024349689483643</v>
       </c>
       <c r="GV2">
-        <v>0.3366566300392151</v>
+        <v>1.222617864608765</v>
       </c>
       <c r="GW2">
-        <v>1.051105380058289</v>
+        <v>-1.366624474525452</v>
       </c>
       <c r="GX2">
-        <v>0.02645475603640079</v>
+        <v>1.054020285606384</v>
       </c>
       <c r="GY2">
-        <v>-0.4185799062252045</v>
+        <v>0.5880752205848694</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Financial Services.xlsx
+++ b/static/Models/Classification/Equation/Financial Services.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.96104907989502</v>
+        <v>9.546346664428711</v>
       </c>
       <c r="C2" t="n">
-        <v>1.997721314430237</v>
+        <v>2.215534925460815</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.400232315063477</v>
+        <v>-3.862142324447632</v>
       </c>
       <c r="E2" t="n">
-        <v>5.991158485412598</v>
+        <v>5.21347188949585</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02426932752132416</v>
+        <v>0.741605281829834</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.205208301544189</v>
+        <v>-3.482597351074219</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.09264801442623138</v>
+        <v>-0.5671351552009583</v>
       </c>
       <c r="I2" t="n">
-        <v>1.804025173187256</v>
+        <v>2.539573669433594</v>
       </c>
       <c r="J2" t="n">
-        <v>-8.95023250579834</v>
+        <v>-8.289695739746094</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2349942177534103</v>
+        <v>-0.5548067688941956</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.5143225193023682</v>
+        <v>-0.165831446647644</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4895157814025879</v>
+        <v>0.9754491448402405</v>
       </c>
       <c r="N2" t="n">
-        <v>1.036426901817322</v>
+        <v>1.791069507598877</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7587974667549133</v>
+        <v>1.462849378585815</v>
       </c>
       <c r="P2" t="n">
-        <v>9.814108848571777</v>
+        <v>9.184900283813477</v>
       </c>
       <c r="Q2" t="n">
-        <v>-8.321763038635254</v>
+        <v>-7.565334320068359</v>
       </c>
       <c r="R2" t="n">
-        <v>1.107618689537048</v>
+        <v>1.317763566970825</v>
       </c>
       <c r="S2" t="n">
-        <v>18.54434967041016</v>
+        <v>17.89903450012207</v>
       </c>
       <c r="T2" t="n">
-        <v>2.872962474822998</v>
+        <v>2.285344839096069</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.548620820045471</v>
+        <v>-0.8186110854148865</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3959415555000305</v>
+        <v>1.125049710273743</v>
       </c>
       <c r="W2" t="n">
-        <v>5.597639560699463</v>
+        <v>6.213575839996338</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.8215591311454773</v>
+        <v>-0.295009434223175</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6041905283927917</v>
+        <v>0.6894180774688721</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.275087833404541</v>
+        <v>-0.8183626532554626</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07653883844614029</v>
+        <v>0.6383311748504639</v>
       </c>
       <c r="AB2" t="n">
-        <v>-5.079288959503174</v>
+        <v>-5.637507438659668</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.46349334716797</v>
+        <v>12.03550338745117</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.005792498588562</v>
+        <v>-1.565960168838501</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4349896013736725</v>
+        <v>-1.119500637054443</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6497619152069092</v>
+        <v>-0.04454651102423668</v>
       </c>
       <c r="AG2" t="n">
-        <v>-14.63962936401367</v>
+        <v>-15.30239868164062</v>
       </c>
       <c r="AH2" t="n">
-        <v>-4.223146438598633</v>
+        <v>-3.51224422454834</v>
       </c>
       <c r="AI2" t="n">
-        <v>-6.98224925994873</v>
+        <v>-6.38574743270874</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.4778050184249878</v>
+        <v>-1.189850449562073</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.395152807235718</v>
+        <v>1.519554376602173</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.2230843603610992</v>
+        <v>-0.4018231928348541</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.361345767974854</v>
+        <v>4.17285680770874</v>
       </c>
       <c r="AN2" t="n">
-        <v>-10.38334178924561</v>
+        <v>-11.12700939178467</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.2542062103748322</v>
+        <v>-0.3106808066368103</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.9582962989807129</v>
+        <v>1.636234402656555</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.4020985662937164</v>
+        <v>-0.4344178736209869</v>
       </c>
       <c r="AR2" t="n">
-        <v>23.60385513305664</v>
+        <v>24.76820755004883</v>
       </c>
       <c r="AS2" t="n">
-        <v>-7.087032794952393</v>
+        <v>-7.758713245391846</v>
       </c>
       <c r="AT2" t="n">
-        <v>-8.981523513793945</v>
+        <v>-8.304364204406738</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.896990180015564</v>
+        <v>-2.673531055450439</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.1880160868167877</v>
+        <v>0.5522324442863464</v>
       </c>
       <c r="AW2" t="n">
-        <v>-7.919600009918213</v>
+        <v>-8.580942153930664</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.174834251403809</v>
+        <v>3.59751033782959</v>
       </c>
       <c r="AY2" t="n">
-        <v>-6.185542583465576</v>
+        <v>-5.509042263031006</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.907914876937866</v>
+        <v>-3.26836109161377</v>
       </c>
       <c r="BA2" t="n">
-        <v>-9.20567798614502</v>
+        <v>-8.515200614929199</v>
       </c>
       <c r="BB2" t="n">
-        <v>-12.98708248138428</v>
+        <v>-13.53079032897949</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.2051354497671127</v>
+        <v>-0.8334298133850098</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.644984126091003</v>
+        <v>-2.130513906478882</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.03861217945814133</v>
+        <v>-0.541071891784668</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.3857531249523163</v>
+        <v>-1.081668138504028</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.9047778248786926</v>
+        <v>0.4625407159328461</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.329986333847046</v>
+        <v>1.416043281555176</v>
       </c>
       <c r="BI2" t="n">
-        <v>5.156642436981201</v>
+        <v>5.889827251434326</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.163720369338989</v>
+        <v>2.68092155456543</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.02413740381598473</v>
+        <v>1.180948376655579</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.3016906976699829</v>
+        <v>0.3727636635303497</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.672401189804077</v>
+        <v>2.136883497238159</v>
       </c>
       <c r="BN2" t="n">
-        <v>-2.590530633926392</v>
+        <v>-1.949328541755676</v>
       </c>
       <c r="BO2" t="n">
-        <v>-7.226651668548584</v>
+        <v>-6.555285930633545</v>
       </c>
       <c r="BP2" t="n">
-        <v>20.21979331970215</v>
+        <v>19.50021171569824</v>
       </c>
       <c r="BQ2" t="n">
-        <v>8.855367660522461</v>
+        <v>8.140161514282227</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.181166887283325</v>
+        <v>0.3925561606884003</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.217282295227051</v>
+        <v>2.124061584472656</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.575942993164062</v>
+        <v>1.971664190292358</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.1993666142225266</v>
+        <v>-0.7162292003631592</v>
       </c>
       <c r="BV2" t="n">
-        <v>-5.117240428924561</v>
+        <v>-5.63265323638916</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.1340160518884659</v>
+        <v>-0.884619414806366</v>
       </c>
       <c r="BX2" t="n">
-        <v>-11.48793411254883</v>
+        <v>-10.78418731689453</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.440407782793045</v>
+        <v>-0.296936571598053</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-5.926301956176758</v>
+        <v>-5.282309055328369</v>
       </c>
       <c r="CA2" t="n">
-        <v>-2.675910234451294</v>
+        <v>-3.394244909286499</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.06257264316082001</v>
+        <v>-0.8415865302085876</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.7767742872238159</v>
+        <v>-0.07405697554349899</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.6025831699371338</v>
+        <v>-0.4208573698997498</v>
       </c>
       <c r="CE2" t="n">
-        <v>7.811802387237549</v>
+        <v>7.737185478210449</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.872200489044189</v>
+        <v>4.59012508392334</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.289759159088135</v>
+        <v>3.388442754745483</v>
       </c>
       <c r="CH2" t="n">
-        <v>-3.486389398574829</v>
+        <v>-4.183757781982422</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.122895240783691</v>
+        <v>-1.303141355514526</v>
       </c>
       <c r="CJ2" t="n">
-        <v>9.250062942504883</v>
+        <v>9.998940467834473</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.6233956217765808</v>
+        <v>-0.648678719997406</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.483165740966797</v>
+        <v>-0.6602088212966919</v>
       </c>
       <c r="CM2" t="n">
-        <v>-5.541934967041016</v>
+        <v>-5.11327075958252</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.16835618019104</v>
+        <v>-0.06901095807552338</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.09209074825048447</v>
+        <v>0.6762716174125671</v>
       </c>
       <c r="CP2" t="n">
-        <v>6.730859756469727</v>
+        <v>7.880324363708496</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2.04458475112915</v>
+        <v>2.718389987945557</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.927764296531677</v>
+        <v>-2.045034646987915</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.160570383071899</v>
+        <v>-1.963361024856567</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.547006487846375</v>
+        <v>2.121718645095825</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.5846372842788696</v>
+        <v>0.08655618876218796</v>
       </c>
       <c r="CV2" t="n">
-        <v>-1.074153423309326</v>
+        <v>-0.32695072889328</v>
       </c>
       <c r="CW2" t="n">
-        <v>-16.43912506103516</v>
+        <v>-15.88215827941895</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.272066116333008</v>
+        <v>2.957037687301636</v>
       </c>
       <c r="CY2" t="n">
-        <v>-2.8294677734375</v>
+        <v>-3.485466003417969</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-2.136758804321289</v>
+        <v>-1.548337817192078</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.417670249938965</v>
+        <v>-2.093783617019653</v>
       </c>
       <c r="DB2" t="n">
-        <v>-3.306099891662598</v>
+        <v>-3.67289400100708</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.192988872528076</v>
+        <v>-0.2480459660291672</v>
       </c>
       <c r="DD2" t="n">
-        <v>-14.81919860839844</v>
+        <v>-14.08209419250488</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.841023206710815</v>
+        <v>-2.247398614883423</v>
       </c>
       <c r="DF2" t="n">
-        <v>3.466413021087646</v>
+        <v>4.152385234832764</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.4429043233394623</v>
+        <v>-1.134783029556274</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.174185872077942</v>
+        <v>1.748504877090454</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.126750349998474</v>
+        <v>1.21975040435791</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-7.482087135314941</v>
+        <v>-7.040739059448242</v>
       </c>
       <c r="DK2" t="n">
-        <v>7.050454616546631</v>
+        <v>7.675985813140869</v>
       </c>
       <c r="DL2" t="n">
-        <v>6.797281265258789</v>
+        <v>6.173429012298584</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.958660483360291</v>
+        <v>2.879924535751343</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.286806732416153</v>
+        <v>-0.1735574305057526</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.710234761238098</v>
+        <v>1.08997106552124</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.516253232955933</v>
+        <v>3.114529848098755</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.6314049959182739</v>
+        <v>0.08374592661857605</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.694682955741882</v>
+        <v>-0.9374973177909851</v>
       </c>
       <c r="DS2" t="n">
-        <v>-8.450628280639648</v>
+        <v>-8.064352035522461</v>
       </c>
       <c r="DT2" t="n">
-        <v>-10.61329460144043</v>
+        <v>-9.983073234558105</v>
       </c>
       <c r="DU2" t="n">
-        <v>-5.117679595947266</v>
+        <v>-5.812143325805664</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.08389689028263092</v>
+        <v>-0.9091724753379822</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.7227156758308411</v>
+        <v>0.09966941177845001</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.4766644537448883</v>
+        <v>-1.00879168510437</v>
       </c>
       <c r="DY2" t="n">
-        <v>-3.304128885269165</v>
+        <v>-2.593130350112915</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.79997730255127</v>
+        <v>2.053468942642212</v>
       </c>
       <c r="EA2" t="n">
-        <v>-5.314387321472168</v>
+        <v>-5.378182888031006</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.959609031677246</v>
+        <v>-1.324361562728882</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.4971367120742798</v>
+        <v>-0.06707700341939926</v>
       </c>
       <c r="ED2" t="n">
-        <v>7.317984580993652</v>
+        <v>6.744010925292969</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.7574886679649353</v>
+        <v>-1.119097948074341</v>
       </c>
       <c r="EF2" t="n">
-        <v>-6.694812774658203</v>
+        <v>-6.053278923034668</v>
       </c>
       <c r="EG2" t="n">
-        <v>-4.732633113861084</v>
+        <v>-3.875141382217407</v>
       </c>
       <c r="EH2" t="n">
-        <v>-10.64769458770752</v>
+        <v>-9.877336502075195</v>
       </c>
       <c r="EI2" t="n">
-        <v>-3.411865949630737</v>
+        <v>-2.776293992996216</v>
       </c>
       <c r="EJ2" t="n">
-        <v>3.452211380004883</v>
+        <v>4.304215431213379</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.7503724694252014</v>
+        <v>1.549527287483215</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.5993773341178894</v>
+        <v>0.1246419027447701</v>
       </c>
       <c r="EM2" t="n">
-        <v>6.044832706451416</v>
+        <v>5.277407646179199</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.4528744518756866</v>
+        <v>0.04122306033968925</v>
       </c>
       <c r="EO2" t="n">
-        <v>18.06827163696289</v>
+        <v>17.45702362060547</v>
       </c>
       <c r="EP2" t="n">
-        <v>-7.8701491355896</v>
+        <v>-7.700924396514893</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-11.80725288391113</v>
+        <v>-11.24170780181885</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.4663134515285492</v>
+        <v>0.2634155750274658</v>
       </c>
       <c r="ES2" t="n">
-        <v>3.657979726791382</v>
+        <v>4.415952205657959</v>
       </c>
       <c r="ET2" t="n">
-        <v>9.006437301635742</v>
+        <v>8.369754791259766</v>
       </c>
       <c r="EU2" t="n">
-        <v>10.21501159667969</v>
+        <v>10.77011871337891</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.2145271748304367</v>
+        <v>-0.4387241005897522</v>
       </c>
       <c r="EW2" t="n">
-        <v>6.600236415863037</v>
+        <v>7.16515588760376</v>
       </c>
       <c r="EX2" t="n">
-        <v>7.638200283050537</v>
+        <v>8.280316352844238</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.08821766078472137</v>
+        <v>-0.4202597737312317</v>
       </c>
       <c r="EZ2" t="n">
-        <v>6.893154144287109</v>
+        <v>7.595022678375244</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.431878089904785</v>
+        <v>-2.162375926971436</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.613292455673218</v>
+        <v>1.536078572273254</v>
       </c>
       <c r="FC2" t="n">
-        <v>-6.561680316925049</v>
+        <v>-6.025916576385498</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.69577956199646</v>
+        <v>1.271275520324707</v>
       </c>
       <c r="FE2" t="n">
-        <v>-5.458471775054932</v>
+        <v>-4.953149318695068</v>
       </c>
       <c r="FF2" t="n">
-        <v>8.367546081542969</v>
+        <v>9.017536163330078</v>
       </c>
       <c r="FG2" t="n">
-        <v>-14.31881046295166</v>
+        <v>-15.03837203979492</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.3879312872886658</v>
+        <v>-1.130526900291443</v>
       </c>
       <c r="FI2" t="n">
-        <v>-8.465023994445801</v>
+        <v>-7.82848072052002</v>
       </c>
       <c r="FJ2" t="n">
-        <v>2.313357591629028</v>
+        <v>3.101370573043823</v>
       </c>
       <c r="FK2" t="n">
-        <v>-4.869440078735352</v>
+        <v>-5.284536838531494</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.45307993888855</v>
+        <v>0.7471364736557007</v>
       </c>
       <c r="FM2" t="n">
-        <v>6.630592823028564</v>
+        <v>5.892351627349854</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.740159749984741</v>
+        <v>3.431427240371704</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1.52525269985199</v>
+        <v>-1.077799439430237</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.9508839249610901</v>
+        <v>-0.145590677857399</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.8237720727920532</v>
+        <v>-1.31257426738739</v>
       </c>
       <c r="FR2" t="n">
-        <v>3.12883472442627</v>
+        <v>3.832060813903809</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.8697848916053772</v>
+        <v>-0.1281708925962448</v>
       </c>
       <c r="FT2" t="n">
-        <v>-2.609009504318237</v>
+        <v>-3.23442268371582</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.989139556884766</v>
+        <v>1.562414646148682</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.835870623588562</v>
+        <v>0.03048474714159966</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.5675790309906006</v>
+        <v>0.01097478810697794</v>
       </c>
       <c r="FX2" t="n">
-        <v>-1.156859636306763</v>
+        <v>-0.3616408705711365</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.973092794418335</v>
+        <v>-0.8265273571014404</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-1.064810514450073</v>
+        <v>-0.478557288646698</v>
       </c>
       <c r="GA2" t="n">
-        <v>-0.6250712871551514</v>
+        <v>-1.227969646453857</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.5891550779342651</v>
+        <v>0.1294555515050888</v>
       </c>
       <c r="GC2" t="n">
-        <v>2.379805564880371</v>
+        <v>1.613727450370789</v>
       </c>
       <c r="GD2" t="n">
-        <v>-4.016635417938232</v>
+        <v>-4.702479839324951</v>
       </c>
       <c r="GE2" t="n">
-        <v>2.625622510910034</v>
+        <v>2.250397205352783</v>
       </c>
       <c r="GF2" t="n">
-        <v>-6.251338958740234</v>
+        <v>-5.528567314147949</v>
       </c>
       <c r="GG2" t="n">
-        <v>9.018170356750488</v>
+        <v>8.21005916595459</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.3145549297332764</v>
+        <v>0.4450641274452209</v>
       </c>
       <c r="GI2" t="n">
-        <v>3.452934265136719</v>
+        <v>2.762367486953735</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.6240875124931335</v>
+        <v>-1.038061380386353</v>
       </c>
       <c r="GK2" t="n">
-        <v>-2.933679342269897</v>
+        <v>-3.270822525024414</v>
       </c>
       <c r="GL2" t="n">
-        <v>-5.242002487182617</v>
+        <v>-5.888471603393555</v>
       </c>
       <c r="GM2" t="n">
-        <v>4.802145481109619</v>
+        <v>5.604066371917725</v>
       </c>
       <c r="GN2" t="n">
-        <v>7.85261344909668</v>
+        <v>7.604801177978516</v>
       </c>
       <c r="GO2" t="n">
-        <v>5.253902912139893</v>
+        <v>5.947959899902344</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.1054359599947929</v>
+        <v>0.7042853236198425</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.1503895074129105</v>
+        <v>-0.7014219164848328</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.05052470415830612</v>
+        <v>0.5522980690002441</v>
       </c>
       <c r="GS2" t="n">
-        <v>14.92694664001465</v>
+        <v>14.31751918792725</v>
       </c>
       <c r="GT2" t="n">
-        <v>-1.019931793212891</v>
+        <v>-0.4129678308963776</v>
       </c>
       <c r="GU2" t="n">
-        <v>-6.833357810974121</v>
+        <v>-7.522666931152344</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.615369558334351</v>
+        <v>0.8510393500328064</v>
       </c>
       <c r="GW2" t="n">
-        <v>-1.600515127182007</v>
+        <v>-2.294861316680908</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.797055184841156</v>
+        <v>0.2811876237392426</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.2952767312526703</v>
+        <v>-0.2875728607177734</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Financial Services.xlsx
+++ b/static/Models/Classification/Equation/Financial Services.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.546346664428711</v>
+        <v>9.120597839355469</v>
       </c>
       <c r="C2" t="n">
-        <v>2.215534925460815</v>
+        <v>1.802748799324036</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.862142324447632</v>
+        <v>-4.673641204833984</v>
       </c>
       <c r="E2" t="n">
-        <v>5.21347188949585</v>
+        <v>6.105380535125732</v>
       </c>
       <c r="F2" t="n">
-        <v>0.741605281829834</v>
+        <v>0.3594132959842682</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.482597351074219</v>
+        <v>-3.008790493011475</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5671351552009583</v>
+        <v>-0.2682335078716278</v>
       </c>
       <c r="I2" t="n">
-        <v>2.539573669433594</v>
+        <v>2.58730936050415</v>
       </c>
       <c r="J2" t="n">
-        <v>-8.289695739746094</v>
+        <v>-8.786361694335938</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5548067688941956</v>
+        <v>-0.3565948903560638</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.165831446647644</v>
+        <v>-0.2829069197177887</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9754491448402405</v>
+        <v>1.113471508026123</v>
       </c>
       <c r="N2" t="n">
-        <v>1.791069507598877</v>
+        <v>1.006164312362671</v>
       </c>
       <c r="O2" t="n">
-        <v>1.462849378585815</v>
+        <v>0.9639937281608582</v>
       </c>
       <c r="P2" t="n">
-        <v>9.184900283813477</v>
+        <v>9.37007999420166</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.565334320068359</v>
+        <v>-7.841507434844971</v>
       </c>
       <c r="R2" t="n">
-        <v>1.317763566970825</v>
+        <v>2.02509880065918</v>
       </c>
       <c r="S2" t="n">
-        <v>17.89903450012207</v>
+        <v>17.15698051452637</v>
       </c>
       <c r="T2" t="n">
-        <v>2.285344839096069</v>
+        <v>2.612802505493164</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.8186110854148865</v>
+        <v>-1.368285775184631</v>
       </c>
       <c r="V2" t="n">
-        <v>1.125049710273743</v>
+        <v>0.8827452659606934</v>
       </c>
       <c r="W2" t="n">
-        <v>6.213575839996338</v>
+        <v>6.625657081604004</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.295009434223175</v>
+        <v>-0.6731065511703491</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6894180774688721</v>
+        <v>0.3021847605705261</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8183626532554626</v>
+        <v>-0.9541947245597839</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6383311748504639</v>
+        <v>0.202565610408783</v>
       </c>
       <c r="AB2" t="n">
-        <v>-5.637507438659668</v>
+        <v>-6.192958831787109</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.03550338745117</v>
+        <v>12.29555702209473</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.565960168838501</v>
+        <v>-1.299821257591248</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.119500637054443</v>
+        <v>-0.7043957114219666</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.04454651102423668</v>
+        <v>0.3850063979625702</v>
       </c>
       <c r="AG2" t="n">
-        <v>-15.30239868164062</v>
+        <v>-15.98128795623779</v>
       </c>
       <c r="AH2" t="n">
-        <v>-3.51224422454834</v>
+        <v>-3.986770153045654</v>
       </c>
       <c r="AI2" t="n">
-        <v>-6.38574743270874</v>
+        <v>-6.102182388305664</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.189850449562073</v>
+        <v>-0.4697875082492828</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.519554376602173</v>
+        <v>2.504997730255127</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.4018231928348541</v>
+        <v>-0.6662850379943848</v>
       </c>
       <c r="AM2" t="n">
-        <v>4.17285680770874</v>
+        <v>4.65280818939209</v>
       </c>
       <c r="AN2" t="n">
-        <v>-11.12700939178467</v>
+        <v>-10.67037296295166</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.3106808066368103</v>
+        <v>-1.38005805015564</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.636234402656555</v>
+        <v>1.803465843200684</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.4344178736209869</v>
+        <v>0.02204546704888344</v>
       </c>
       <c r="AR2" t="n">
-        <v>24.76820755004883</v>
+        <v>24.79996299743652</v>
       </c>
       <c r="AS2" t="n">
-        <v>-7.758713245391846</v>
+        <v>-6.894162654876709</v>
       </c>
       <c r="AT2" t="n">
-        <v>-8.304364204406738</v>
+        <v>-7.821030139923096</v>
       </c>
       <c r="AU2" t="n">
-        <v>-2.673531055450439</v>
+        <v>-2.176196575164795</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.5522324442863464</v>
+        <v>-0.01194158382713795</v>
       </c>
       <c r="AW2" t="n">
-        <v>-8.580942153930664</v>
+        <v>-8.456767082214355</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.59751033782959</v>
+        <v>3.605904579162598</v>
       </c>
       <c r="AY2" t="n">
-        <v>-5.509042263031006</v>
+        <v>-5.427977085113525</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-3.26836109161377</v>
+        <v>-2.922533512115479</v>
       </c>
       <c r="BA2" t="n">
-        <v>-8.515200614929199</v>
+        <v>-8.208036422729492</v>
       </c>
       <c r="BB2" t="n">
-        <v>-13.53079032897949</v>
+        <v>-14.051513671875</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.8334298133850098</v>
+        <v>-1.824545383453369</v>
       </c>
       <c r="BD2" t="n">
-        <v>-2.130513906478882</v>
+        <v>-1.886995196342468</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.541071891784668</v>
+        <v>-0.1653477400541306</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.081668138504028</v>
+        <v>-1.540984988212585</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.4625407159328461</v>
+        <v>0.7057578563690186</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.416043281555176</v>
+        <v>0.9141525030136108</v>
       </c>
       <c r="BI2" t="n">
-        <v>5.889827251434326</v>
+        <v>6.225982666015625</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.68092155456543</v>
+        <v>2.674250841140747</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.180948376655579</v>
+        <v>0.318775862455368</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.3727636635303497</v>
+        <v>-0.05016832798719406</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.136883497238159</v>
+        <v>2.336501836776733</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1.949328541755676</v>
+        <v>-1.664725065231323</v>
       </c>
       <c r="BO2" t="n">
-        <v>-6.555285930633545</v>
+        <v>-6.678564548492432</v>
       </c>
       <c r="BP2" t="n">
-        <v>19.50021171569824</v>
+        <v>20.11298179626465</v>
       </c>
       <c r="BQ2" t="n">
-        <v>8.140161514282227</v>
+        <v>7.695714950561523</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.3925561606884003</v>
+        <v>0.2610944211483002</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.124061584472656</v>
+        <v>1.886868476867676</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.971664190292358</v>
+        <v>2.700945138931274</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.7162292003631592</v>
+        <v>-0.3813340961933136</v>
       </c>
       <c r="BV2" t="n">
-        <v>-5.63265323638916</v>
+        <v>-6.377609252929688</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.884619414806366</v>
+        <v>-0.2726385593414307</v>
       </c>
       <c r="BX2" t="n">
-        <v>-10.78418731689453</v>
+        <v>-11.28027439117432</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.296936571598053</v>
+        <v>-0.7549000382423401</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-5.282309055328369</v>
+        <v>-5.800209522247314</v>
       </c>
       <c r="CA2" t="n">
-        <v>-3.394244909286499</v>
+        <v>-2.976392984390259</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.8415865302085876</v>
+        <v>-0.9843654632568359</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.07405697554349899</v>
+        <v>-0.2459577023983002</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.4208573698997498</v>
+        <v>0.4029504656791687</v>
       </c>
       <c r="CE2" t="n">
-        <v>7.737185478210449</v>
+        <v>6.970406055450439</v>
       </c>
       <c r="CF2" t="n">
-        <v>4.59012508392334</v>
+        <v>4.644495964050293</v>
       </c>
       <c r="CG2" t="n">
-        <v>3.388442754745483</v>
+        <v>3.205636262893677</v>
       </c>
       <c r="CH2" t="n">
-        <v>-4.183757781982422</v>
+        <v>-4.81869649887085</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.303141355514526</v>
+        <v>-1.059736132621765</v>
       </c>
       <c r="CJ2" t="n">
-        <v>9.998940467834473</v>
+        <v>9.710696220397949</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.648678719997406</v>
+        <v>-0.2897728383541107</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.6602088212966919</v>
+        <v>-0.8123125433921814</v>
       </c>
       <c r="CM2" t="n">
-        <v>-5.11327075958252</v>
+        <v>-5.458242416381836</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.06901095807552338</v>
+        <v>0.6478165984153748</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.6762716174125671</v>
+        <v>0.8772119879722595</v>
       </c>
       <c r="CP2" t="n">
-        <v>7.880324363708496</v>
+        <v>7.514411926269531</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2.718389987945557</v>
+        <v>2.669901609420776</v>
       </c>
       <c r="CR2" t="n">
-        <v>-2.045034646987915</v>
+        <v>-2.355991125106812</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.963361024856567</v>
+        <v>-1.677581310272217</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.121718645095825</v>
+        <v>1.876977443695068</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.08655618876218796</v>
+        <v>0.3209121525287628</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.32695072889328</v>
+        <v>-0.8234995007514954</v>
       </c>
       <c r="CW2" t="n">
-        <v>-15.88215827941895</v>
+        <v>-16.18215370178223</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.957037687301636</v>
+        <v>2.420618057250977</v>
       </c>
       <c r="CY2" t="n">
-        <v>-3.485466003417969</v>
+        <v>-3.11888575553894</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.548337817192078</v>
+        <v>-2.080402374267578</v>
       </c>
       <c r="DA2" t="n">
-        <v>-2.093783617019653</v>
+        <v>-1.259308457374573</v>
       </c>
       <c r="DB2" t="n">
-        <v>-3.67289400100708</v>
+        <v>-3.731953144073486</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.2480459660291672</v>
+        <v>0.1033759340643883</v>
       </c>
       <c r="DD2" t="n">
-        <v>-14.08209419250488</v>
+        <v>-14.58499240875244</v>
       </c>
       <c r="DE2" t="n">
-        <v>-2.247398614883423</v>
+        <v>-1.940739750862122</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.152385234832764</v>
+        <v>3.719426393508911</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.134783029556274</v>
+        <v>-0.6720974445343018</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.748504877090454</v>
+        <v>2.15477728843689</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.21975040435791</v>
+        <v>1.603945374488831</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-7.040739059448242</v>
+        <v>-7.82889461517334</v>
       </c>
       <c r="DK2" t="n">
-        <v>7.675985813140869</v>
+        <v>8.30784797668457</v>
       </c>
       <c r="DL2" t="n">
-        <v>6.173429012298584</v>
+        <v>6.213810443878174</v>
       </c>
       <c r="DM2" t="n">
-        <v>2.879924535751343</v>
+        <v>2.872213840484619</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.1735574305057526</v>
+        <v>0.05527565628290176</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.08997106552124</v>
+        <v>1.498744010925293</v>
       </c>
       <c r="DP2" t="n">
-        <v>3.114529848098755</v>
+        <v>2.698493242263794</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.08374592661857605</v>
+        <v>0.3065232336521149</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.9374973177909851</v>
+        <v>-1.191994428634644</v>
       </c>
       <c r="DS2" t="n">
-        <v>-8.064352035522461</v>
+        <v>-8.409992218017578</v>
       </c>
       <c r="DT2" t="n">
-        <v>-9.983073234558105</v>
+        <v>-9.705636978149414</v>
       </c>
       <c r="DU2" t="n">
-        <v>-5.812143325805664</v>
+        <v>-5.709784984588623</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.9091724753379822</v>
+        <v>-1.271153569221497</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.09966941177845001</v>
+        <v>-0.6782825589179993</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.00879168510437</v>
+        <v>-0.7744085788726807</v>
       </c>
       <c r="DY2" t="n">
-        <v>-2.593130350112915</v>
+        <v>-2.878801107406616</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.053468942642212</v>
+        <v>1.635787963867188</v>
       </c>
       <c r="EA2" t="n">
-        <v>-5.378182888031006</v>
+        <v>-5.205196857452393</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.324361562728882</v>
+        <v>-1.033681511878967</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.06707700341939926</v>
+        <v>0.5351958274841309</v>
       </c>
       <c r="ED2" t="n">
-        <v>6.744010925292969</v>
+        <v>7.057296276092529</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.119097948074341</v>
+        <v>-0.8373129367828369</v>
       </c>
       <c r="EF2" t="n">
-        <v>-6.053278923034668</v>
+        <v>-5.698277473449707</v>
       </c>
       <c r="EG2" t="n">
-        <v>-3.875141382217407</v>
+        <v>-3.319225311279297</v>
       </c>
       <c r="EH2" t="n">
-        <v>-9.877336502075195</v>
+        <v>-10.34016799926758</v>
       </c>
       <c r="EI2" t="n">
-        <v>-2.776293992996216</v>
+        <v>-3.29625415802002</v>
       </c>
       <c r="EJ2" t="n">
-        <v>4.304215431213379</v>
+        <v>4.51499605178833</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.549527287483215</v>
+        <v>1.611304402351379</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.1246419027447701</v>
+        <v>0.3307332992553711</v>
       </c>
       <c r="EM2" t="n">
-        <v>5.277407646179199</v>
+        <v>6.027618408203125</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.04122306033968925</v>
+        <v>0.1050891578197479</v>
       </c>
       <c r="EO2" t="n">
-        <v>17.45702362060547</v>
+        <v>17.34184455871582</v>
       </c>
       <c r="EP2" t="n">
-        <v>-7.700924396514893</v>
+        <v>-7.375770092010498</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-11.24170780181885</v>
+        <v>-11.06462478637695</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.2634155750274658</v>
+        <v>0.6235190629959106</v>
       </c>
       <c r="ES2" t="n">
-        <v>4.415952205657959</v>
+        <v>4.06984281539917</v>
       </c>
       <c r="ET2" t="n">
-        <v>8.369754791259766</v>
+        <v>8.145046234130859</v>
       </c>
       <c r="EU2" t="n">
-        <v>10.77011871337891</v>
+        <v>10.32378673553467</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.4387241005897522</v>
+        <v>-1.230256080627441</v>
       </c>
       <c r="EW2" t="n">
-        <v>7.16515588760376</v>
+        <v>6.796657085418701</v>
       </c>
       <c r="EX2" t="n">
-        <v>8.280316352844238</v>
+        <v>8.742053985595703</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.4202597737312317</v>
+        <v>-0.1261754631996155</v>
       </c>
       <c r="EZ2" t="n">
-        <v>7.595022678375244</v>
+        <v>7.261989116668701</v>
       </c>
       <c r="FA2" t="n">
-        <v>-2.162375926971436</v>
+        <v>-1.959989786148071</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.536078572273254</v>
+        <v>1.817906022071838</v>
       </c>
       <c r="FC2" t="n">
-        <v>-6.025916576385498</v>
+        <v>-5.570457458496094</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.271275520324707</v>
+        <v>0.7506749033927917</v>
       </c>
       <c r="FE2" t="n">
-        <v>-4.953149318695068</v>
+        <v>-5.316188335418701</v>
       </c>
       <c r="FF2" t="n">
-        <v>9.017536163330078</v>
+        <v>9.379812240600586</v>
       </c>
       <c r="FG2" t="n">
-        <v>-15.03837203979492</v>
+        <v>-15.12154579162598</v>
       </c>
       <c r="FH2" t="n">
-        <v>-1.130526900291443</v>
+        <v>-1.641430377960205</v>
       </c>
       <c r="FI2" t="n">
-        <v>-7.82848072052002</v>
+        <v>-8.190977096557617</v>
       </c>
       <c r="FJ2" t="n">
-        <v>3.101370573043823</v>
+        <v>3.159156799316406</v>
       </c>
       <c r="FK2" t="n">
-        <v>-5.284536838531494</v>
+        <v>-5.776566505432129</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.7471364736557007</v>
+        <v>1.175277590751648</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.892351627349854</v>
+        <v>5.118937492370605</v>
       </c>
       <c r="FN2" t="n">
-        <v>3.431427240371704</v>
+        <v>3.025197744369507</v>
       </c>
       <c r="FO2" t="n">
-        <v>-1.077799439430237</v>
+        <v>-0.6439504027366638</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.145590677857399</v>
+        <v>0.4638490378856659</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-1.31257426738739</v>
+        <v>-1.136147856712341</v>
       </c>
       <c r="FR2" t="n">
-        <v>3.832060813903809</v>
+        <v>4.101468563079834</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.1281708925962448</v>
+        <v>-0.3629210889339447</v>
       </c>
       <c r="FT2" t="n">
-        <v>-3.23442268371582</v>
+        <v>-3.030601501464844</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.562414646148682</v>
+        <v>1.876738309860229</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.03048474714159966</v>
+        <v>0.3888446390628815</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.01097478810697794</v>
+        <v>0.4160699546337128</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.3616408705711365</v>
+        <v>-0.06863334029912949</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.8265273571014404</v>
+        <v>-0.3798284232616425</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.478557288646698</v>
+        <v>-0.586711049079895</v>
       </c>
       <c r="GA2" t="n">
-        <v>-1.227969646453857</v>
+        <v>-1.90901780128479</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.1294555515050888</v>
+        <v>0.3062692284584045</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.613727450370789</v>
+        <v>1.268318295478821</v>
       </c>
       <c r="GD2" t="n">
-        <v>-4.702479839324951</v>
+        <v>-5.107844352722168</v>
       </c>
       <c r="GE2" t="n">
-        <v>2.250397205352783</v>
+        <v>2.464297533035278</v>
       </c>
       <c r="GF2" t="n">
-        <v>-5.528567314147949</v>
+        <v>-5.744346141815186</v>
       </c>
       <c r="GG2" t="n">
-        <v>8.21005916595459</v>
+        <v>7.522415161132812</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.4450641274452209</v>
+        <v>-0.2990569770336151</v>
       </c>
       <c r="GI2" t="n">
-        <v>2.762367486953735</v>
+        <v>2.181110143661499</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-1.038061380386353</v>
+        <v>-1.400241494178772</v>
       </c>
       <c r="GK2" t="n">
-        <v>-3.270822525024414</v>
+        <v>-3.930766344070435</v>
       </c>
       <c r="GL2" t="n">
-        <v>-5.888471603393555</v>
+        <v>-6.103984355926514</v>
       </c>
       <c r="GM2" t="n">
-        <v>5.604066371917725</v>
+        <v>5.580554962158203</v>
       </c>
       <c r="GN2" t="n">
-        <v>7.604801177978516</v>
+        <v>8.14385986328125</v>
       </c>
       <c r="GO2" t="n">
-        <v>5.947959899902344</v>
+        <v>6.141087055206299</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.7042853236198425</v>
+        <v>0.8700433373451233</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.7014219164848328</v>
+        <v>-0.4620424807071686</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.5522980690002441</v>
+        <v>1.3058842420578</v>
       </c>
       <c r="GS2" t="n">
-        <v>14.31751918792725</v>
+        <v>13.56749629974365</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.4129678308963776</v>
+        <v>-0.98032146692276</v>
       </c>
       <c r="GU2" t="n">
-        <v>-7.522666931152344</v>
+        <v>-7.574721336364746</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.8510393500328064</v>
+        <v>0.1785778254270554</v>
       </c>
       <c r="GW2" t="n">
-        <v>-2.294861316680908</v>
+        <v>-3.137629270553589</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.2811876237392426</v>
+        <v>0.6283136010169983</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.2875728607177734</v>
+        <v>-0.005621497519314289</v>
       </c>
     </row>
   </sheetData>
